--- a/JupyterNotebooks/AvgHW/AlphaFiberF-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/AlphaFiberF-HW03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -73,25 +85,25 @@
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
     <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,58 +564,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -617,25 +629,25 @@
         <v>1.279369148168113</v>
       </c>
       <c r="D3">
+        <v>1.026882016517201</v>
+      </c>
+      <c r="E3">
+        <v>1.059731994575641</v>
+      </c>
+      <c r="F3">
+        <v>1.015249891263798</v>
+      </c>
+      <c r="G3">
+        <v>1.063184865700973</v>
+      </c>
+      <c r="H3">
         <v>1.12956770869193</v>
       </c>
-      <c r="E3">
-        <v>1.063184865700973</v>
-      </c>
-      <c r="F3">
+      <c r="I3">
+        <v>1.12956770869193</v>
+      </c>
+      <c r="J3">
         <v>1.279369148168113</v>
-      </c>
-      <c r="G3">
-        <v>1.059731994575641</v>
-      </c>
-      <c r="H3">
-        <v>1.026882016517201</v>
-      </c>
-      <c r="I3">
-        <v>1.015249891263798</v>
-      </c>
-      <c r="J3">
-        <v>1.12956770869193</v>
       </c>
       <c r="K3">
         <v>1.279369148168113</v>
@@ -679,25 +691,25 @@
         <v>1.604907144245246</v>
       </c>
       <c r="D4">
+        <v>1.078123803187341</v>
+      </c>
+      <c r="E4">
+        <v>1.208034769188831</v>
+      </c>
+      <c r="F4">
+        <v>1.092598002071044</v>
+      </c>
+      <c r="G4">
+        <v>1.117738869766187</v>
+      </c>
+      <c r="H4">
         <v>1.405099968017963</v>
       </c>
-      <c r="E4">
-        <v>1.117738869766187</v>
-      </c>
-      <c r="F4">
+      <c r="I4">
+        <v>1.405099968017963</v>
+      </c>
+      <c r="J4">
         <v>1.604907144245246</v>
-      </c>
-      <c r="G4">
-        <v>1.208034769188831</v>
-      </c>
-      <c r="H4">
-        <v>1.078123803187341</v>
-      </c>
-      <c r="I4">
-        <v>1.092598002071044</v>
-      </c>
-      <c r="J4">
-        <v>1.405099968017963</v>
       </c>
       <c r="K4">
         <v>1.604907144245246</v>
@@ -741,25 +753,25 @@
         <v>3.368366448052184</v>
       </c>
       <c r="D5">
+        <v>1.10876879048947</v>
+      </c>
+      <c r="E5">
+        <v>1.899722293553348</v>
+      </c>
+      <c r="F5">
+        <v>1.441796132611467</v>
+      </c>
+      <c r="G5">
+        <v>1.240578336235678</v>
+      </c>
+      <c r="H5">
         <v>1.539758256441217</v>
       </c>
-      <c r="E5">
-        <v>1.240578336235678</v>
-      </c>
-      <c r="F5">
+      <c r="I5">
+        <v>1.539758256441217</v>
+      </c>
+      <c r="J5">
         <v>3.368366448052184</v>
-      </c>
-      <c r="G5">
-        <v>1.899722293553348</v>
-      </c>
-      <c r="H5">
-        <v>1.10876879048947</v>
-      </c>
-      <c r="I5">
-        <v>1.441796132611467</v>
-      </c>
-      <c r="J5">
-        <v>1.539758256441217</v>
       </c>
       <c r="K5">
         <v>3.368366448052184</v>
@@ -800,34 +812,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>6.302525156061164</v>
+        <v>6.302525156061162</v>
       </c>
       <c r="D6">
+        <v>1.024925290857417</v>
+      </c>
+      <c r="E6">
+        <v>2.178160881177463</v>
+      </c>
+      <c r="F6">
+        <v>0.9254422178677697</v>
+      </c>
+      <c r="G6">
+        <v>2.409693711998406</v>
+      </c>
+      <c r="H6">
         <v>4.669056893919244</v>
       </c>
-      <c r="E6">
-        <v>2.409693711998407</v>
-      </c>
-      <c r="F6">
-        <v>6.302525156061164</v>
-      </c>
-      <c r="G6">
-        <v>2.178160881177463</v>
-      </c>
-      <c r="H6">
-        <v>1.024925290857417</v>
-      </c>
       <c r="I6">
-        <v>0.9254422178677697</v>
+        <v>4.669056893919244</v>
       </c>
       <c r="J6">
-        <v>4.669056893919244</v>
+        <v>6.302525156061162</v>
       </c>
       <c r="K6">
-        <v>6.302525156061164</v>
+        <v>6.302525156061162</v>
       </c>
       <c r="L6">
-        <v>2.409693711998407</v>
+        <v>2.409693711998406</v>
       </c>
       <c r="M6">
         <v>3.539375302958825</v>
@@ -839,16 +851,16 @@
         <v>2.701225298925022</v>
       </c>
       <c r="P6">
-        <v>4.460425253992939</v>
+        <v>4.460425253992938</v>
       </c>
       <c r="Q6">
-        <v>4.460425253992939</v>
+        <v>4.460425253992937</v>
       </c>
       <c r="R6">
-        <v>4.920950229509995</v>
+        <v>4.920950229509994</v>
       </c>
       <c r="S6">
-        <v>4.920950229509995</v>
+        <v>4.920950229509994</v>
       </c>
       <c r="T6">
         <v>2.918300691980244</v>
@@ -862,31 +874,31 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.068612293597849</v>
+        <v>1.068612293597848</v>
       </c>
       <c r="D7">
-        <v>1.048307695879738</v>
+        <v>0.9895695433135079</v>
       </c>
       <c r="E7">
+        <v>1.051272000219251</v>
+      </c>
+      <c r="F7">
+        <v>0.9929550319286998</v>
+      </c>
+      <c r="G7">
         <v>1.016402146675627</v>
       </c>
-      <c r="F7">
-        <v>1.068612293597849</v>
-      </c>
-      <c r="G7">
-        <v>1.051272000219253</v>
-      </c>
       <c r="H7">
-        <v>0.9895695433135087</v>
+        <v>1.048307695879739</v>
       </c>
       <c r="I7">
-        <v>0.9929550319286995</v>
+        <v>1.048307695879739</v>
       </c>
       <c r="J7">
-        <v>1.048307695879738</v>
+        <v>1.068612293597848</v>
       </c>
       <c r="K7">
-        <v>1.068612293597849</v>
+        <v>1.068612293597848</v>
       </c>
       <c r="L7">
         <v>1.016402146675627</v>
@@ -907,10 +919,10 @@
         <v>1.044440712051071</v>
       </c>
       <c r="R7">
-        <v>1.050483607437766</v>
+        <v>1.050483607437765</v>
       </c>
       <c r="S7">
-        <v>1.050483607437766</v>
+        <v>1.050483607437765</v>
       </c>
       <c r="T7">
         <v>1.027853118602446</v>
@@ -927,55 +939,55 @@
         <v>1.120079853657215</v>
       </c>
       <c r="D8">
-        <v>1.079326715570105</v>
+        <v>0.9961329895178055</v>
       </c>
       <c r="E8">
-        <v>1.019986702077028</v>
+        <v>1.077861162212376</v>
       </c>
       <c r="F8">
+        <v>0.990415576587013</v>
+      </c>
+      <c r="G8">
+        <v>1.019986702077031</v>
+      </c>
+      <c r="H8">
+        <v>1.079326715570113</v>
+      </c>
+      <c r="I8">
+        <v>1.079326715570113</v>
+      </c>
+      <c r="J8">
         <v>1.120079853657215</v>
-      </c>
-      <c r="G8">
-        <v>1.077861162212369</v>
-      </c>
-      <c r="H8">
-        <v>0.996132989517804</v>
-      </c>
-      <c r="I8">
-        <v>0.9904155765870131</v>
-      </c>
-      <c r="J8">
-        <v>1.079326715570105</v>
       </c>
       <c r="K8">
         <v>1.120079853657215</v>
       </c>
       <c r="L8">
-        <v>1.019986702077028</v>
+        <v>1.019986702077031</v>
       </c>
       <c r="M8">
-        <v>1.049656708823567</v>
+        <v>1.049656708823572</v>
       </c>
       <c r="N8">
-        <v>1.049656708823567</v>
+        <v>1.049656708823572</v>
       </c>
       <c r="O8">
-        <v>1.031815469054979</v>
+        <v>1.031815469054983</v>
       </c>
       <c r="P8">
-        <v>1.073131090434783</v>
+        <v>1.073131090434786</v>
       </c>
       <c r="Q8">
-        <v>1.073131090434783</v>
+        <v>1.073131090434786</v>
       </c>
       <c r="R8">
-        <v>1.084868281240391</v>
+        <v>1.084868281240393</v>
       </c>
       <c r="S8">
-        <v>1.084868281240391</v>
+        <v>1.084868281240393</v>
       </c>
       <c r="T8">
-        <v>1.047300499936922</v>
+        <v>1.047300499936925</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -989,25 +1001,25 @@
         <v>1.356808716248784</v>
       </c>
       <c r="D9">
+        <v>0.9775566515409007</v>
+      </c>
+      <c r="E9">
+        <v>1.062092622749021</v>
+      </c>
+      <c r="F9">
+        <v>0.9670447000266864</v>
+      </c>
+      <c r="G9">
+        <v>1.053136621842351</v>
+      </c>
+      <c r="H9">
         <v>1.081777908150743</v>
       </c>
-      <c r="E9">
-        <v>1.053136621842351</v>
-      </c>
-      <c r="F9">
+      <c r="I9">
+        <v>1.081777908150743</v>
+      </c>
+      <c r="J9">
         <v>1.356808716248784</v>
-      </c>
-      <c r="G9">
-        <v>1.06209262274902</v>
-      </c>
-      <c r="H9">
-        <v>0.9775566515409007</v>
-      </c>
-      <c r="I9">
-        <v>0.9670447000266862</v>
-      </c>
-      <c r="J9">
-        <v>1.081777908150743</v>
       </c>
       <c r="K9">
         <v>1.356808716248784</v>
@@ -1037,7 +1049,7 @@
         <v>1.212132990622666</v>
       </c>
       <c r="T9">
-        <v>1.083069536759747</v>
+        <v>1.083069536759748</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1048,31 +1060,31 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.629303113505302</v>
+        <v>1.629303113505301</v>
       </c>
       <c r="D10">
+        <v>0.945535192699863</v>
+      </c>
+      <c r="E10">
+        <v>1.216667553042504</v>
+      </c>
+      <c r="F10">
+        <v>1.066899928545225</v>
+      </c>
+      <c r="G10">
+        <v>1.112454650553862</v>
+      </c>
+      <c r="H10">
         <v>1.152479375929933</v>
       </c>
-      <c r="E10">
-        <v>1.112454650553862</v>
-      </c>
-      <c r="F10">
-        <v>1.629303113505302</v>
-      </c>
-      <c r="G10">
-        <v>1.216667553042505</v>
-      </c>
-      <c r="H10">
-        <v>0.945535192699863</v>
-      </c>
       <c r="I10">
-        <v>1.066899928545225</v>
+        <v>1.152479375929933</v>
       </c>
       <c r="J10">
-        <v>1.152479375929933</v>
+        <v>1.629303113505301</v>
       </c>
       <c r="K10">
-        <v>1.629303113505302</v>
+        <v>1.629303113505301</v>
       </c>
       <c r="L10">
         <v>1.112454650553862</v>
@@ -1093,10 +1105,10 @@
         <v>1.298079046663032</v>
       </c>
       <c r="R10">
-        <v>1.3808850633736</v>
+        <v>1.380885063373599</v>
       </c>
       <c r="S10">
-        <v>1.3808850633736</v>
+        <v>1.380885063373599</v>
       </c>
       <c r="T10">
         <v>1.187223302379448</v>
@@ -1113,31 +1125,31 @@
         <v>2.361611064393339</v>
       </c>
       <c r="D11">
+        <v>0.8943345638236021</v>
+      </c>
+      <c r="E11">
+        <v>1.373991877182963</v>
+      </c>
+      <c r="F11">
+        <v>0.9182615591955541</v>
+      </c>
+      <c r="G11">
+        <v>1.178134395220268</v>
+      </c>
+      <c r="H11">
         <v>1.346328388165785</v>
       </c>
-      <c r="E11">
-        <v>1.178134395220267</v>
-      </c>
-      <c r="F11">
+      <c r="I11">
+        <v>1.346328388165785</v>
+      </c>
+      <c r="J11">
         <v>2.361611064393339</v>
-      </c>
-      <c r="G11">
-        <v>1.373991877182964</v>
-      </c>
-      <c r="H11">
-        <v>0.8943345638236022</v>
-      </c>
-      <c r="I11">
-        <v>0.9182615591955541</v>
-      </c>
-      <c r="J11">
-        <v>1.346328388165785</v>
       </c>
       <c r="K11">
         <v>2.361611064393339</v>
       </c>
       <c r="L11">
-        <v>1.178134395220267</v>
+        <v>1.178134395220268</v>
       </c>
       <c r="M11">
         <v>1.262231391693026</v>
@@ -1149,16 +1161,16 @@
         <v>1.139599115736552</v>
       </c>
       <c r="P11">
-        <v>1.628691282593131</v>
+        <v>1.62869128259313</v>
       </c>
       <c r="Q11">
-        <v>1.628691282593131</v>
+        <v>1.62869128259313</v>
       </c>
       <c r="R11">
-        <v>1.811921228043183</v>
+        <v>1.811921228043182</v>
       </c>
       <c r="S11">
-        <v>1.811921228043183</v>
+        <v>1.811921228043182</v>
       </c>
       <c r="T11">
         <v>1.345443641330252</v>
@@ -1175,25 +1187,25 @@
         <v>1.705554643115539</v>
       </c>
       <c r="D12">
-        <v>0.00248523527940489</v>
+        <v>1.60510479929576</v>
       </c>
       <c r="E12">
+        <v>0.0009603180863463678</v>
+      </c>
+      <c r="F12">
+        <v>1.44589577300558</v>
+      </c>
+      <c r="G12">
         <v>1.042010413470588</v>
       </c>
-      <c r="F12">
+      <c r="H12">
+        <v>0.002485235279404896</v>
+      </c>
+      <c r="I12">
+        <v>0.002485235279404896</v>
+      </c>
+      <c r="J12">
         <v>1.705554643115539</v>
-      </c>
-      <c r="G12">
-        <v>0.0009603180863463677</v>
-      </c>
-      <c r="H12">
-        <v>1.605104799295761</v>
-      </c>
-      <c r="I12">
-        <v>1.445895773005581</v>
-      </c>
-      <c r="J12">
-        <v>0.00248523527940489</v>
       </c>
       <c r="K12">
         <v>1.705554643115539</v>
@@ -1202,13 +1214,13 @@
         <v>1.042010413470588</v>
       </c>
       <c r="M12">
-        <v>0.5222478243749964</v>
+        <v>0.5222478243749965</v>
       </c>
       <c r="N12">
-        <v>0.5222478243749964</v>
+        <v>0.5222478243749965</v>
       </c>
       <c r="O12">
-        <v>0.8832001493485847</v>
+        <v>0.8832001493485843</v>
       </c>
       <c r="P12">
         <v>0.9166834306218439</v>
@@ -1223,7 +1235,7 @@
         <v>1.113901233745268</v>
       </c>
       <c r="T12">
-        <v>0.9670018637088701</v>
+        <v>0.9670018637088696</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1234,31 +1246,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.069219111067937</v>
+        <v>1.069219111067938</v>
       </c>
       <c r="D13">
+        <v>0.7245298929213373</v>
+      </c>
+      <c r="E13">
+        <v>1.669950404516509</v>
+      </c>
+      <c r="F13">
+        <v>0.9738373934482308</v>
+      </c>
+      <c r="G13">
+        <v>1.255596748899099</v>
+      </c>
+      <c r="H13">
         <v>2.918949149647179</v>
       </c>
-      <c r="E13">
-        <v>1.255596748899099</v>
-      </c>
-      <c r="F13">
-        <v>1.069219111067937</v>
-      </c>
-      <c r="G13">
-        <v>1.669950404516509</v>
-      </c>
-      <c r="H13">
-        <v>0.724529892921338</v>
-      </c>
       <c r="I13">
-        <v>0.9738373934482311</v>
+        <v>2.918949149647179</v>
       </c>
       <c r="J13">
-        <v>2.918949149647179</v>
+        <v>1.069219111067938</v>
       </c>
       <c r="K13">
-        <v>1.069219111067937</v>
+        <v>1.069219111067938</v>
       </c>
       <c r="L13">
         <v>1.255596748899099</v>
@@ -1273,16 +1285,16 @@
         <v>1.633025263822539</v>
       </c>
       <c r="P13">
-        <v>1.747921669871405</v>
+        <v>1.747921669871406</v>
       </c>
       <c r="Q13">
-        <v>1.747921669871405</v>
+        <v>1.747921669871406</v>
       </c>
       <c r="R13">
-        <v>1.578246030170538</v>
+        <v>1.578246030170539</v>
       </c>
       <c r="S13">
-        <v>1.578246030170538</v>
+        <v>1.578246030170539</v>
       </c>
       <c r="T13">
         <v>1.435347116750049</v>
@@ -1296,34 +1308,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.4331838084551375</v>
+        <v>0.4331838084551377</v>
       </c>
       <c r="D14">
-        <v>1.686541510159178</v>
+        <v>1.688266149648427</v>
       </c>
       <c r="E14">
-        <v>0.5510846346794228</v>
+        <v>0.6126721767637138</v>
       </c>
       <c r="F14">
-        <v>0.4331838084551375</v>
+        <v>1.228362198520639</v>
       </c>
       <c r="G14">
-        <v>0.6126721767637147</v>
+        <v>0.551084634679422</v>
       </c>
       <c r="H14">
-        <v>1.688266149648429</v>
+        <v>1.68654151015918</v>
       </c>
       <c r="I14">
-        <v>1.228362198520639</v>
+        <v>1.68654151015918</v>
       </c>
       <c r="J14">
-        <v>1.686541510159178</v>
+        <v>0.4331838084551377</v>
       </c>
       <c r="K14">
-        <v>0.4331838084551375</v>
+        <v>0.4331838084551377</v>
       </c>
       <c r="L14">
-        <v>0.5510846346794228</v>
+        <v>0.551084634679422</v>
       </c>
       <c r="M14">
         <v>1.118813072419301</v>
@@ -1335,16 +1347,16 @@
         <v>1.30863076482901</v>
       </c>
       <c r="P14">
-        <v>0.8902699844312463</v>
+        <v>0.8902699844312464</v>
       </c>
       <c r="Q14">
-        <v>0.8902699844312462</v>
+        <v>0.8902699844312464</v>
       </c>
       <c r="R14">
-        <v>0.775998440437219</v>
+        <v>0.7759984404372192</v>
       </c>
       <c r="S14">
-        <v>0.775998440437219</v>
+        <v>0.7759984404372192</v>
       </c>
       <c r="T14">
         <v>1.033351746371087</v>
@@ -1358,58 +1370,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.3878749146360928</v>
+        <v>0.3878749146360924</v>
       </c>
       <c r="D15">
+        <v>1.471135685741275</v>
+      </c>
+      <c r="E15">
+        <v>0.3973658516338666</v>
+      </c>
+      <c r="F15">
+        <v>0.970124542052011</v>
+      </c>
+      <c r="G15">
+        <v>0.7411530584963391</v>
+      </c>
+      <c r="H15">
         <v>0.05381285810825413</v>
       </c>
-      <c r="E15">
-        <v>0.7411530584963388</v>
-      </c>
-      <c r="F15">
-        <v>0.3878749146360928</v>
-      </c>
-      <c r="G15">
-        <v>0.3973658516338667</v>
-      </c>
-      <c r="H15">
-        <v>1.471135685741275</v>
-      </c>
       <c r="I15">
-        <v>0.970124542052011</v>
+        <v>0.05381285810825413</v>
       </c>
       <c r="J15">
-        <v>0.05381285810825413</v>
+        <v>0.3878749146360924</v>
       </c>
       <c r="K15">
-        <v>0.3878749146360928</v>
+        <v>0.3878749146360924</v>
       </c>
       <c r="L15">
-        <v>0.7411530584963388</v>
+        <v>0.7411530584963391</v>
       </c>
       <c r="M15">
-        <v>0.3974829583022965</v>
+        <v>0.3974829583022966</v>
       </c>
       <c r="N15">
-        <v>0.3974829583022965</v>
+        <v>0.3974829583022966</v>
       </c>
       <c r="O15">
-        <v>0.7553672007819561</v>
+        <v>0.7553672007819562</v>
       </c>
       <c r="P15">
-        <v>0.3942802770802286</v>
+        <v>0.3942802770802285</v>
       </c>
       <c r="Q15">
-        <v>0.3942802770802286</v>
+        <v>0.3942802770802285</v>
       </c>
       <c r="R15">
-        <v>0.3926789364691946</v>
+        <v>0.3926789364691945</v>
       </c>
       <c r="S15">
-        <v>0.3926789364691946</v>
+        <v>0.3926789364691945</v>
       </c>
       <c r="T15">
-        <v>0.6702444851113065</v>
+        <v>0.6702444851113064</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1420,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.024608641764952</v>
+        <v>4.502640308688352</v>
       </c>
       <c r="D16">
-        <v>1.036106362533282</v>
+        <v>1.54232557558251</v>
       </c>
       <c r="E16">
-        <v>1.02243389953718</v>
+        <v>1.184528897662039</v>
       </c>
       <c r="F16">
-        <v>1.024608641764952</v>
+        <v>1.415719066448759</v>
       </c>
       <c r="G16">
-        <v>1.05958645892131</v>
+        <v>1.47571204885358</v>
       </c>
       <c r="H16">
-        <v>0.9927595455151673</v>
+        <v>2.437485896024015</v>
       </c>
       <c r="I16">
-        <v>0.9927622079288044</v>
+        <v>2.437485896024015</v>
       </c>
       <c r="J16">
-        <v>1.036106362533282</v>
+        <v>4.502640308688352</v>
       </c>
       <c r="K16">
-        <v>1.024608641764952</v>
+        <v>4.502640308688352</v>
       </c>
       <c r="L16">
-        <v>1.02243389953718</v>
+        <v>1.47571204885358</v>
       </c>
       <c r="M16">
-        <v>1.029270131035231</v>
+        <v>1.956598972438798</v>
       </c>
       <c r="N16">
-        <v>1.029270131035231</v>
+        <v>1.956598972438798</v>
       </c>
       <c r="O16">
-        <v>1.017099935861877</v>
+        <v>1.818507840153368</v>
       </c>
       <c r="P16">
-        <v>1.027716301278471</v>
+        <v>2.805279417855316</v>
       </c>
       <c r="Q16">
-        <v>1.027716301278471</v>
+        <v>2.805279417855316</v>
       </c>
       <c r="R16">
-        <v>1.026939386400092</v>
+        <v>3.229619640563575</v>
       </c>
       <c r="S16">
-        <v>1.026939386400092</v>
+        <v>3.229619640563575</v>
       </c>
       <c r="T16">
-        <v>1.021376186033449</v>
+        <v>2.093068632209876</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1482,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.137781263764226</v>
+        <v>3.345277543773531</v>
       </c>
       <c r="D17">
-        <v>1.08997083278909</v>
+        <v>1.341215667302578</v>
       </c>
       <c r="E17">
-        <v>1.011296751049787</v>
+        <v>1.434220453454749</v>
       </c>
       <c r="F17">
-        <v>1.137781263764226</v>
+        <v>1.253073557808155</v>
       </c>
       <c r="G17">
-        <v>1.026986135535629</v>
+        <v>1.412514751364288</v>
       </c>
       <c r="H17">
-        <v>0.9884318269651904</v>
+        <v>2.369319105502906</v>
       </c>
       <c r="I17">
-        <v>1.004898742426084</v>
+        <v>2.369319105502906</v>
       </c>
       <c r="J17">
-        <v>1.08997083278909</v>
+        <v>3.345277543773531</v>
       </c>
       <c r="K17">
-        <v>1.137781263764226</v>
+        <v>3.345277543773531</v>
       </c>
       <c r="L17">
-        <v>1.011296751049787</v>
+        <v>1.412514751364288</v>
       </c>
       <c r="M17">
-        <v>1.050633791919439</v>
+        <v>1.890916928433597</v>
       </c>
       <c r="N17">
-        <v>1.050633791919439</v>
+        <v>1.890916928433597</v>
       </c>
       <c r="O17">
-        <v>1.029899803601356</v>
+        <v>1.707683174723257</v>
       </c>
       <c r="P17">
-        <v>1.079682949201034</v>
+        <v>2.375703800213575</v>
       </c>
       <c r="Q17">
-        <v>1.079682949201034</v>
+        <v>2.375703800213575</v>
       </c>
       <c r="R17">
-        <v>1.094207527841832</v>
+        <v>2.618097236103564</v>
       </c>
       <c r="S17">
-        <v>1.094207527841832</v>
+        <v>2.618097236103564</v>
       </c>
       <c r="T17">
-        <v>1.043227592088335</v>
+        <v>1.859270179867701</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1544,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>2.169279399762381</v>
+        <v>1.318927481847179</v>
       </c>
       <c r="D18">
-        <v>1.436642021320401</v>
+        <v>0.8722188789010191</v>
       </c>
       <c r="E18">
-        <v>0.9920568935057723</v>
+        <v>2.116655854712541</v>
       </c>
       <c r="F18">
-        <v>2.169279399762381</v>
+        <v>0.9639999781492327</v>
       </c>
       <c r="G18">
-        <v>1.137487446839503</v>
+        <v>1.39323811188745</v>
       </c>
       <c r="H18">
-        <v>0.857806708673618</v>
+        <v>2.181013690472728</v>
       </c>
       <c r="I18">
-        <v>1.091825415556993</v>
+        <v>2.181013690472728</v>
       </c>
       <c r="J18">
-        <v>1.436642021320401</v>
+        <v>1.318927481847179</v>
       </c>
       <c r="K18">
-        <v>2.169279399762381</v>
+        <v>1.318927481847179</v>
       </c>
       <c r="L18">
-        <v>0.9920568935057723</v>
+        <v>1.39323811188745</v>
       </c>
       <c r="M18">
-        <v>1.214349457413086</v>
+        <v>1.787125901180089</v>
       </c>
       <c r="N18">
-        <v>1.214349457413086</v>
+        <v>1.787125901180089</v>
       </c>
       <c r="O18">
-        <v>1.09550187449993</v>
+        <v>1.482156893753732</v>
       </c>
       <c r="P18">
-        <v>1.532659438196185</v>
+        <v>1.631059761402452</v>
       </c>
       <c r="Q18">
-        <v>1.532659438196185</v>
+        <v>1.631059761402452</v>
       </c>
       <c r="R18">
-        <v>1.691814428587734</v>
+        <v>1.553026691513634</v>
       </c>
       <c r="S18">
-        <v>1.691814428587734</v>
+        <v>1.553026691513634</v>
       </c>
       <c r="T18">
-        <v>1.280849647609778</v>
+        <v>1.474342332661691</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1606,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.291945815166263</v>
+      </c>
+      <c r="D19">
+        <v>0.8839885092381518</v>
+      </c>
+      <c r="E19">
+        <v>2.703108313552943</v>
+      </c>
+      <c r="F19">
+        <v>1.022868725713039</v>
+      </c>
+      <c r="G19">
+        <v>1.483016468541681</v>
+      </c>
+      <c r="H19">
+        <v>3.137583263206567</v>
+      </c>
+      <c r="I19">
+        <v>3.137583263206567</v>
+      </c>
+      <c r="J19">
+        <v>1.291945815166263</v>
+      </c>
+      <c r="K19">
+        <v>1.291945815166263</v>
+      </c>
+      <c r="L19">
+        <v>1.483016468541681</v>
+      </c>
+      <c r="M19">
+        <v>2.310299865874124</v>
+      </c>
+      <c r="N19">
+        <v>2.310299865874124</v>
+      </c>
+      <c r="O19">
+        <v>1.834862746995466</v>
+      </c>
+      <c r="P19">
+        <v>1.97084851563817</v>
+      </c>
+      <c r="Q19">
+        <v>1.97084851563817</v>
+      </c>
+      <c r="R19">
+        <v>1.801122840520193</v>
+      </c>
+      <c r="S19">
+        <v>1.801122840520193</v>
+      </c>
+      <c r="T19">
+        <v>1.753751849236441</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.024608641764953</v>
+      </c>
+      <c r="D20">
+        <v>0.9927595455151678</v>
+      </c>
+      <c r="E20">
+        <v>1.05958645892131</v>
+      </c>
+      <c r="F20">
+        <v>0.992762207928804</v>
+      </c>
+      <c r="G20">
+        <v>1.022433899537182</v>
+      </c>
+      <c r="H20">
+        <v>1.036106362533283</v>
+      </c>
+      <c r="I20">
+        <v>1.036106362533283</v>
+      </c>
+      <c r="J20">
+        <v>1.024608641764953</v>
+      </c>
+      <c r="K20">
+        <v>1.024608641764953</v>
+      </c>
+      <c r="L20">
+        <v>1.022433899537182</v>
+      </c>
+      <c r="M20">
+        <v>1.029270131035232</v>
+      </c>
+      <c r="N20">
+        <v>1.029270131035232</v>
+      </c>
+      <c r="O20">
+        <v>1.017099935861878</v>
+      </c>
+      <c r="P20">
+        <v>1.027716301278472</v>
+      </c>
+      <c r="Q20">
+        <v>1.027716301278472</v>
+      </c>
+      <c r="R20">
+        <v>1.026939386400093</v>
+      </c>
+      <c r="S20">
+        <v>1.026939386400093</v>
+      </c>
+      <c r="T20">
+        <v>1.02137618603345</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.137781263764229</v>
+      </c>
+      <c r="D21">
+        <v>0.9884318269651895</v>
+      </c>
+      <c r="E21">
+        <v>1.02698613553563</v>
+      </c>
+      <c r="F21">
+        <v>1.004898742426084</v>
+      </c>
+      <c r="G21">
+        <v>1.011296751049787</v>
+      </c>
+      <c r="H21">
+        <v>1.08997083278909</v>
+      </c>
+      <c r="I21">
+        <v>1.08997083278909</v>
+      </c>
+      <c r="J21">
+        <v>1.137781263764229</v>
+      </c>
+      <c r="K21">
+        <v>1.137781263764229</v>
+      </c>
+      <c r="L21">
+        <v>1.011296751049787</v>
+      </c>
+      <c r="M21">
+        <v>1.050633791919439</v>
+      </c>
+      <c r="N21">
+        <v>1.050633791919439</v>
+      </c>
+      <c r="O21">
+        <v>1.029899803601356</v>
+      </c>
+      <c r="P21">
+        <v>1.079682949201035</v>
+      </c>
+      <c r="Q21">
+        <v>1.079682949201035</v>
+      </c>
+      <c r="R21">
+        <v>1.094207527841834</v>
+      </c>
+      <c r="S21">
+        <v>1.094207527841834</v>
+      </c>
+      <c r="T21">
+        <v>1.043227592088335</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>2.169279399762387</v>
+      </c>
+      <c r="D22">
+        <v>0.8578067086736187</v>
+      </c>
+      <c r="E22">
+        <v>1.137487446839503</v>
+      </c>
+      <c r="F22">
+        <v>1.091825415556994</v>
+      </c>
+      <c r="G22">
+        <v>0.9920568935057734</v>
+      </c>
+      <c r="H22">
+        <v>1.436642021320401</v>
+      </c>
+      <c r="I22">
+        <v>1.436642021320401</v>
+      </c>
+      <c r="J22">
+        <v>2.169279399762387</v>
+      </c>
+      <c r="K22">
+        <v>2.169279399762387</v>
+      </c>
+      <c r="L22">
+        <v>0.9920568935057734</v>
+      </c>
+      <c r="M22">
+        <v>1.214349457413087</v>
+      </c>
+      <c r="N22">
+        <v>1.214349457413087</v>
+      </c>
+      <c r="O22">
+        <v>1.095501874499931</v>
+      </c>
+      <c r="P22">
+        <v>1.532659438196187</v>
+      </c>
+      <c r="Q22">
+        <v>1.532659438196187</v>
+      </c>
+      <c r="R22">
+        <v>1.691814428587737</v>
+      </c>
+      <c r="S22">
+        <v>1.691814428587737</v>
+      </c>
+      <c r="T22">
+        <v>1.280849647609779</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>1.053908803073048</v>
       </c>
-      <c r="D19">
+      <c r="D23">
+        <v>0.7524143986029078</v>
+      </c>
+      <c r="E23">
+        <v>1.526641711715784</v>
+      </c>
+      <c r="F23">
+        <v>1.156963855410678</v>
+      </c>
+      <c r="G23">
+        <v>1.069247385818606</v>
+      </c>
+      <c r="H23">
         <v>1.942140374997898</v>
       </c>
-      <c r="E19">
+      <c r="I23">
+        <v>1.942140374997898</v>
+      </c>
+      <c r="J23">
+        <v>1.053908803073048</v>
+      </c>
+      <c r="K23">
+        <v>1.053908803073048</v>
+      </c>
+      <c r="L23">
         <v>1.069247385818606</v>
       </c>
-      <c r="F19">
-        <v>1.053908803073048</v>
-      </c>
-      <c r="G19">
-        <v>1.526641711715784</v>
-      </c>
-      <c r="H19">
-        <v>0.7524143986029078</v>
-      </c>
-      <c r="I19">
-        <v>1.156963855410678</v>
-      </c>
-      <c r="J19">
-        <v>1.942140374997898</v>
-      </c>
-      <c r="K19">
-        <v>1.053908803073048</v>
-      </c>
-      <c r="L19">
-        <v>1.069247385818606</v>
-      </c>
-      <c r="M19">
+      <c r="M23">
         <v>1.505693880408252</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.505693880408252</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.254600719806471</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.355098854629851</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.355098854629851</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.27980134174065</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.27980134174065</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.250219421603154</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/AlphaFiberF-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/AlphaFiberF-HW03.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.279369148168113</v>
+        <v>1.097655098868639</v>
       </c>
       <c r="D3">
-        <v>1.026882016517201</v>
+        <v>0.9266058341850941</v>
       </c>
       <c r="E3">
-        <v>1.059731994575641</v>
+        <v>2.612722075937493</v>
       </c>
       <c r="F3">
-        <v>1.015249891263798</v>
+        <v>0.9299062723889632</v>
       </c>
       <c r="G3">
-        <v>1.063184865700973</v>
+        <v>1.512226357570853</v>
       </c>
       <c r="H3">
-        <v>1.12956770869193</v>
+        <v>3.155020307254655</v>
       </c>
       <c r="I3">
-        <v>1.12956770869193</v>
+        <v>3.155020307254655</v>
       </c>
       <c r="J3">
-        <v>1.279369148168113</v>
+        <v>1.097655098868639</v>
       </c>
       <c r="K3">
-        <v>1.279369148168113</v>
+        <v>1.097655098868639</v>
       </c>
       <c r="L3">
-        <v>1.063184865700973</v>
+        <v>1.512226357570853</v>
       </c>
       <c r="M3">
-        <v>1.096376287196452</v>
+        <v>2.333623332412754</v>
       </c>
       <c r="N3">
-        <v>1.096376287196452</v>
+        <v>2.333623332412754</v>
       </c>
       <c r="O3">
-        <v>1.073211530303368</v>
+        <v>1.8646174996702</v>
       </c>
       <c r="P3">
-        <v>1.157373907520339</v>
+        <v>1.921633921231382</v>
       </c>
       <c r="Q3">
-        <v>1.157373907520339</v>
+        <v>1.921633921231382</v>
       </c>
       <c r="R3">
-        <v>1.187872717682282</v>
+        <v>1.715639215640696</v>
       </c>
       <c r="S3">
-        <v>1.187872717682282</v>
+        <v>1.715639215640696</v>
       </c>
       <c r="T3">
-        <v>1.095664270819609</v>
+        <v>1.705689324367616</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.604907144245246</v>
+        <v>0.991723103842528</v>
       </c>
       <c r="D4">
-        <v>1.078123803187341</v>
+        <v>0.9332954949740088</v>
       </c>
       <c r="E4">
-        <v>1.208034769188831</v>
+        <v>2.239847245947604</v>
       </c>
       <c r="F4">
-        <v>1.092598002071044</v>
+        <v>0.9298089882721117</v>
       </c>
       <c r="G4">
-        <v>1.117738869766187</v>
+        <v>1.388513450009991</v>
       </c>
       <c r="H4">
-        <v>1.405099968017963</v>
+        <v>2.646343802180751</v>
       </c>
       <c r="I4">
-        <v>1.405099968017963</v>
+        <v>2.646343802180751</v>
       </c>
       <c r="J4">
-        <v>1.604907144245246</v>
+        <v>0.991723103842528</v>
       </c>
       <c r="K4">
-        <v>1.604907144245246</v>
+        <v>0.991723103842528</v>
       </c>
       <c r="L4">
-        <v>1.117738869766187</v>
+        <v>1.388513450009991</v>
       </c>
       <c r="M4">
-        <v>1.261419418892075</v>
+        <v>2.017428626095371</v>
       </c>
       <c r="N4">
-        <v>1.261419418892075</v>
+        <v>2.017428626095371</v>
       </c>
       <c r="O4">
-        <v>1.200320880323831</v>
+        <v>1.656050915721584</v>
       </c>
       <c r="P4">
-        <v>1.375915327343132</v>
+        <v>1.675526785344424</v>
       </c>
       <c r="Q4">
-        <v>1.375915327343132</v>
+        <v>1.675526785344424</v>
       </c>
       <c r="R4">
-        <v>1.433163281568661</v>
+        <v>1.50457586496895</v>
       </c>
       <c r="S4">
-        <v>1.433163281568661</v>
+        <v>1.50457586496895</v>
       </c>
       <c r="T4">
-        <v>1.251083759412769</v>
+        <v>1.521588680871166</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>3.368366448052184</v>
+        <v>1.916396430942578</v>
       </c>
       <c r="D5">
-        <v>1.10876879048947</v>
+        <v>0.9091026434130723</v>
       </c>
       <c r="E5">
-        <v>1.899722293553348</v>
+        <v>4.420951715536592</v>
       </c>
       <c r="F5">
-        <v>1.441796132611467</v>
+        <v>1.096853191090673</v>
       </c>
       <c r="G5">
-        <v>1.240578336235678</v>
+        <v>2.268978602670317</v>
       </c>
       <c r="H5">
-        <v>1.539758256441217</v>
+        <v>4.543802655895366</v>
       </c>
       <c r="I5">
-        <v>1.539758256441217</v>
+        <v>4.543802655895366</v>
       </c>
       <c r="J5">
-        <v>3.368366448052184</v>
+        <v>1.916396430942578</v>
       </c>
       <c r="K5">
-        <v>3.368366448052184</v>
+        <v>1.916396430942578</v>
       </c>
       <c r="L5">
-        <v>1.240578336235678</v>
+        <v>2.268978602670317</v>
       </c>
       <c r="M5">
-        <v>1.390168296338448</v>
+        <v>3.406390629282842</v>
       </c>
       <c r="N5">
-        <v>1.390168296338448</v>
+        <v>3.406390629282842</v>
       </c>
       <c r="O5">
-        <v>1.296368461055455</v>
+        <v>2.573961300659585</v>
       </c>
       <c r="P5">
-        <v>2.049567680243026</v>
+        <v>2.909725896502754</v>
       </c>
       <c r="Q5">
-        <v>2.049567680243026</v>
+        <v>2.909725896502753</v>
       </c>
       <c r="R5">
-        <v>2.379267372195316</v>
+        <v>2.66139353011271</v>
       </c>
       <c r="S5">
-        <v>2.379267372195316</v>
+        <v>2.66139353011271</v>
       </c>
       <c r="T5">
-        <v>1.766498376230561</v>
+        <v>2.526014206591433</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>6.302525156061162</v>
+        <v>4.303330114877068</v>
       </c>
       <c r="D6">
-        <v>1.024925290857417</v>
+        <v>1.056894411866024</v>
       </c>
       <c r="E6">
-        <v>2.178160881177463</v>
+        <v>5.439332308610753</v>
       </c>
       <c r="F6">
-        <v>0.9254422178677697</v>
+        <v>0.6199941790210224</v>
       </c>
       <c r="G6">
-        <v>2.409693711998406</v>
+        <v>2.623031972048409</v>
       </c>
       <c r="H6">
-        <v>4.669056893919244</v>
+        <v>7.590630000994016</v>
       </c>
       <c r="I6">
-        <v>4.669056893919244</v>
+        <v>7.590630000994016</v>
       </c>
       <c r="J6">
-        <v>6.302525156061162</v>
+        <v>4.303330114877068</v>
       </c>
       <c r="K6">
-        <v>6.302525156061162</v>
+        <v>4.303330114877068</v>
       </c>
       <c r="L6">
-        <v>2.409693711998406</v>
+        <v>2.623031972048409</v>
       </c>
       <c r="M6">
-        <v>3.539375302958825</v>
+        <v>5.106830986521212</v>
       </c>
       <c r="N6">
-        <v>3.539375302958825</v>
+        <v>5.106830986521212</v>
       </c>
       <c r="O6">
-        <v>2.701225298925022</v>
+        <v>3.756852128302816</v>
       </c>
       <c r="P6">
-        <v>4.460425253992938</v>
+        <v>4.83899736263983</v>
       </c>
       <c r="Q6">
-        <v>4.460425253992937</v>
+        <v>4.838997362639831</v>
       </c>
       <c r="R6">
-        <v>4.920950229509994</v>
+        <v>4.70508055069914</v>
       </c>
       <c r="S6">
-        <v>4.920950229509994</v>
+        <v>4.70508055069914</v>
       </c>
       <c r="T6">
-        <v>2.918300691980244</v>
+        <v>3.605535497902882</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.068612293597848</v>
+        <v>5.626136419534227</v>
       </c>
       <c r="D7">
-        <v>0.9895695433135079</v>
+        <v>0.3050917758439212</v>
       </c>
       <c r="E7">
-        <v>1.051272000219251</v>
+        <v>2.105363450300994</v>
       </c>
       <c r="F7">
-        <v>0.9929550319286998</v>
+        <v>1.735928155521604</v>
       </c>
       <c r="G7">
-        <v>1.016402146675627</v>
+        <v>1.519112316988299</v>
       </c>
       <c r="H7">
-        <v>1.048307695879739</v>
+        <v>0.1528947778654398</v>
       </c>
       <c r="I7">
-        <v>1.048307695879739</v>
+        <v>0.1528947778654398</v>
       </c>
       <c r="J7">
-        <v>1.068612293597848</v>
+        <v>5.626136419534227</v>
       </c>
       <c r="K7">
-        <v>1.068612293597848</v>
+        <v>5.626136419534227</v>
       </c>
       <c r="L7">
-        <v>1.016402146675627</v>
+        <v>1.519112316988299</v>
       </c>
       <c r="M7">
-        <v>1.032354921277683</v>
+        <v>0.8360035474268694</v>
       </c>
       <c r="N7">
-        <v>1.032354921277683</v>
+        <v>0.8360035474268694</v>
       </c>
       <c r="O7">
-        <v>1.018093128622958</v>
+        <v>0.65903295689922</v>
       </c>
       <c r="P7">
-        <v>1.044440712051071</v>
+        <v>2.432714504795988</v>
       </c>
       <c r="Q7">
-        <v>1.044440712051071</v>
+        <v>2.432714504795988</v>
       </c>
       <c r="R7">
-        <v>1.050483607437765</v>
+        <v>3.231069983480548</v>
       </c>
       <c r="S7">
-        <v>1.050483607437765</v>
+        <v>3.231069983480548</v>
       </c>
       <c r="T7">
-        <v>1.027853118602446</v>
+        <v>1.907421149342414</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.120079853657215</v>
+        <v>5.818668321352504</v>
       </c>
       <c r="D8">
-        <v>0.9961329895178055</v>
+        <v>0.3019432256074346</v>
       </c>
       <c r="E8">
-        <v>1.077861162212376</v>
+        <v>2.154500460863252</v>
       </c>
       <c r="F8">
-        <v>0.990415576587013</v>
+        <v>1.724601467711075</v>
       </c>
       <c r="G8">
-        <v>1.019986702077031</v>
+        <v>1.530852014550058</v>
       </c>
       <c r="H8">
-        <v>1.079326715570113</v>
+        <v>0.2319101419496165</v>
       </c>
       <c r="I8">
-        <v>1.079326715570113</v>
+        <v>0.2319101419496165</v>
       </c>
       <c r="J8">
-        <v>1.120079853657215</v>
+        <v>5.818668321352504</v>
       </c>
       <c r="K8">
-        <v>1.120079853657215</v>
+        <v>5.818668321352504</v>
       </c>
       <c r="L8">
-        <v>1.019986702077031</v>
+        <v>1.530852014550058</v>
       </c>
       <c r="M8">
-        <v>1.049656708823572</v>
+        <v>0.8813810782498371</v>
       </c>
       <c r="N8">
-        <v>1.049656708823572</v>
+        <v>0.8813810782498371</v>
       </c>
       <c r="O8">
-        <v>1.031815469054983</v>
+        <v>0.6882351273690364</v>
       </c>
       <c r="P8">
-        <v>1.073131090434786</v>
+        <v>2.527143492617393</v>
       </c>
       <c r="Q8">
-        <v>1.073131090434786</v>
+        <v>2.527143492617393</v>
       </c>
       <c r="R8">
-        <v>1.084868281240393</v>
+        <v>3.350024699801171</v>
       </c>
       <c r="S8">
-        <v>1.084868281240393</v>
+        <v>3.350024699801171</v>
       </c>
       <c r="T8">
-        <v>1.047300499936925</v>
+        <v>1.96041260533899</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.356808716248784</v>
+        <v>5.828222045626898</v>
       </c>
       <c r="D9">
-        <v>0.9775566515409007</v>
+        <v>0.2981970828610006</v>
       </c>
       <c r="E9">
-        <v>1.062092622749021</v>
+        <v>2.260582380373617</v>
       </c>
       <c r="F9">
-        <v>0.9670447000266864</v>
+        <v>1.715054915103924</v>
       </c>
       <c r="G9">
-        <v>1.053136621842351</v>
+        <v>1.562961142042363</v>
       </c>
       <c r="H9">
-        <v>1.081777908150743</v>
+        <v>0.3809940186288882</v>
       </c>
       <c r="I9">
-        <v>1.081777908150743</v>
+        <v>0.3809940186288882</v>
       </c>
       <c r="J9">
-        <v>1.356808716248784</v>
+        <v>5.828222045626898</v>
       </c>
       <c r="K9">
-        <v>1.356808716248784</v>
+        <v>5.828222045626898</v>
       </c>
       <c r="L9">
-        <v>1.053136621842351</v>
+        <v>1.562961142042363</v>
       </c>
       <c r="M9">
-        <v>1.067457264996547</v>
+        <v>0.9719775803356256</v>
       </c>
       <c r="N9">
-        <v>1.067457264996547</v>
+        <v>0.9719775803356256</v>
       </c>
       <c r="O9">
-        <v>1.037490393844665</v>
+        <v>0.7473840811774174</v>
       </c>
       <c r="P9">
-        <v>1.163907748747293</v>
+        <v>2.590725735432716</v>
       </c>
       <c r="Q9">
-        <v>1.163907748747293</v>
+        <v>2.590725735432716</v>
       </c>
       <c r="R9">
-        <v>1.212132990622666</v>
+        <v>3.400099812981262</v>
       </c>
       <c r="S9">
-        <v>1.212132990622666</v>
+        <v>3.400099812981262</v>
       </c>
       <c r="T9">
-        <v>1.083069536759748</v>
+        <v>2.007668597439448</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.629303113505301</v>
+        <v>6.842365993326915</v>
       </c>
       <c r="D10">
-        <v>0.945535192699863</v>
+        <v>0.2867573856588371</v>
       </c>
       <c r="E10">
-        <v>1.216667553042504</v>
+        <v>2.453493154592739</v>
       </c>
       <c r="F10">
-        <v>1.066899928545225</v>
+        <v>1.679004473719474</v>
       </c>
       <c r="G10">
-        <v>1.112454650553862</v>
+        <v>1.615570411756303</v>
       </c>
       <c r="H10">
-        <v>1.152479375929933</v>
+        <v>0.6730114184729463</v>
       </c>
       <c r="I10">
-        <v>1.152479375929933</v>
+        <v>0.6730114184729463</v>
       </c>
       <c r="J10">
-        <v>1.629303113505301</v>
+        <v>6.842365993326915</v>
       </c>
       <c r="K10">
-        <v>1.629303113505301</v>
+        <v>6.842365993326915</v>
       </c>
       <c r="L10">
-        <v>1.112454650553862</v>
+        <v>1.615570411756303</v>
       </c>
       <c r="M10">
-        <v>1.132467013241897</v>
+        <v>1.144290915114625</v>
       </c>
       <c r="N10">
-        <v>1.132467013241897</v>
+        <v>1.144290915114625</v>
       </c>
       <c r="O10">
-        <v>1.070156406394553</v>
+        <v>0.8584464052960287</v>
       </c>
       <c r="P10">
-        <v>1.298079046663032</v>
+        <v>3.043649274518721</v>
       </c>
       <c r="Q10">
-        <v>1.298079046663032</v>
+        <v>3.043649274518721</v>
       </c>
       <c r="R10">
-        <v>1.380885063373599</v>
+        <v>3.993328454220769</v>
       </c>
       <c r="S10">
-        <v>1.380885063373599</v>
+        <v>3.993328454220769</v>
       </c>
       <c r="T10">
-        <v>1.187223302379448</v>
+        <v>2.258367139587869</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>2.361611064393339</v>
+        <v>1.240254493033031</v>
       </c>
       <c r="D11">
-        <v>0.8943345638236021</v>
+        <v>1.028613338946695</v>
       </c>
       <c r="E11">
-        <v>1.373991877182963</v>
+        <v>1.041821829527088</v>
       </c>
       <c r="F11">
-        <v>0.9182615591955541</v>
+        <v>1.031618886503664</v>
       </c>
       <c r="G11">
-        <v>1.178134395220268</v>
+        <v>1.039614554122016</v>
       </c>
       <c r="H11">
-        <v>1.346328388165785</v>
+        <v>1.099851321006688</v>
       </c>
       <c r="I11">
-        <v>1.346328388165785</v>
+        <v>1.099851321006688</v>
       </c>
       <c r="J11">
-        <v>2.361611064393339</v>
+        <v>1.240254493033031</v>
       </c>
       <c r="K11">
-        <v>2.361611064393339</v>
+        <v>1.240254493033031</v>
       </c>
       <c r="L11">
-        <v>1.178134395220268</v>
+        <v>1.039614554122016</v>
       </c>
       <c r="M11">
-        <v>1.262231391693026</v>
+        <v>1.069732937564352</v>
       </c>
       <c r="N11">
-        <v>1.262231391693026</v>
+        <v>1.069732937564352</v>
       </c>
       <c r="O11">
-        <v>1.139599115736552</v>
+        <v>1.0560264046918</v>
       </c>
       <c r="P11">
-        <v>1.62869128259313</v>
+        <v>1.126573456053912</v>
       </c>
       <c r="Q11">
-        <v>1.62869128259313</v>
+        <v>1.126573456053912</v>
       </c>
       <c r="R11">
-        <v>1.811921228043182</v>
+        <v>1.154993715298692</v>
       </c>
       <c r="S11">
-        <v>1.811921228043182</v>
+        <v>1.154993715298692</v>
       </c>
       <c r="T11">
-        <v>1.345443641330252</v>
+        <v>1.080295737189864</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.705554643115539</v>
+        <v>1.149505804365588</v>
       </c>
       <c r="D12">
-        <v>1.60510479929576</v>
+        <v>1.004514220691584</v>
       </c>
       <c r="E12">
-        <v>0.0009603180863463678</v>
+        <v>1.051002074919267</v>
       </c>
       <c r="F12">
-        <v>1.44589577300558</v>
+        <v>1.01299079861776</v>
       </c>
       <c r="G12">
-        <v>1.042010413470588</v>
+        <v>1.030926002657463</v>
       </c>
       <c r="H12">
-        <v>0.002485235279404896</v>
+        <v>1.063599141866485</v>
       </c>
       <c r="I12">
-        <v>0.002485235279404896</v>
+        <v>1.063599141866485</v>
       </c>
       <c r="J12">
-        <v>1.705554643115539</v>
+        <v>1.149505804365588</v>
       </c>
       <c r="K12">
-        <v>1.705554643115539</v>
+        <v>1.149505804365588</v>
       </c>
       <c r="L12">
-        <v>1.042010413470588</v>
+        <v>1.030926002657463</v>
       </c>
       <c r="M12">
-        <v>0.5222478243749965</v>
+        <v>1.047262572261974</v>
       </c>
       <c r="N12">
-        <v>0.5222478243749965</v>
+        <v>1.047262572261974</v>
       </c>
       <c r="O12">
-        <v>0.8832001493485843</v>
+        <v>1.033013121738511</v>
       </c>
       <c r="P12">
-        <v>0.9166834306218439</v>
+        <v>1.081343649629845</v>
       </c>
       <c r="Q12">
-        <v>0.9166834306218439</v>
+        <v>1.081343649629845</v>
       </c>
       <c r="R12">
-        <v>1.113901233745268</v>
+        <v>1.098384188313781</v>
       </c>
       <c r="S12">
-        <v>1.113901233745268</v>
+        <v>1.098384188313781</v>
       </c>
       <c r="T12">
-        <v>0.9670018637088696</v>
+        <v>1.052089673853025</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.069219111067938</v>
+        <v>2.187913132678172</v>
       </c>
       <c r="D13">
-        <v>0.7245298929213373</v>
+        <v>1.040333512108761</v>
       </c>
       <c r="E13">
-        <v>1.669950404516509</v>
+        <v>1.271600047187704</v>
       </c>
       <c r="F13">
-        <v>0.9738373934482308</v>
+        <v>1.423541190306524</v>
       </c>
       <c r="G13">
-        <v>1.255596748899099</v>
+        <v>1.349699168528453</v>
       </c>
       <c r="H13">
-        <v>2.918949149647179</v>
+        <v>0.8636733038572797</v>
       </c>
       <c r="I13">
-        <v>2.918949149647179</v>
+        <v>0.8636733038572797</v>
       </c>
       <c r="J13">
-        <v>1.069219111067938</v>
+        <v>2.187913132678172</v>
       </c>
       <c r="K13">
-        <v>1.069219111067938</v>
+        <v>2.187913132678172</v>
       </c>
       <c r="L13">
-        <v>1.255596748899099</v>
+        <v>1.349699168528453</v>
       </c>
       <c r="M13">
-        <v>2.087272949273139</v>
+        <v>1.106686236192866</v>
       </c>
       <c r="N13">
-        <v>2.087272949273139</v>
+        <v>1.106686236192866</v>
       </c>
       <c r="O13">
-        <v>1.633025263822539</v>
+        <v>1.084568661498165</v>
       </c>
       <c r="P13">
-        <v>1.747921669871406</v>
+        <v>1.467095201687968</v>
       </c>
       <c r="Q13">
-        <v>1.747921669871406</v>
+        <v>1.467095201687968</v>
       </c>
       <c r="R13">
-        <v>1.578246030170539</v>
+        <v>1.647299684435519</v>
       </c>
       <c r="S13">
-        <v>1.578246030170539</v>
+        <v>1.647299684435519</v>
       </c>
       <c r="T13">
-        <v>1.435347116750049</v>
+        <v>1.356126725777816</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.4331838084551377</v>
+        <v>4.440285117153524</v>
       </c>
       <c r="D14">
-        <v>1.688266149648427</v>
+        <v>1.205657335572103</v>
       </c>
       <c r="E14">
-        <v>0.6126721767637138</v>
+        <v>1.588057748684778</v>
       </c>
       <c r="F14">
-        <v>1.228362198520639</v>
+        <v>0.7364571390698778</v>
       </c>
       <c r="G14">
-        <v>0.551084634679422</v>
+        <v>1.727882818191312</v>
       </c>
       <c r="H14">
-        <v>1.68654151015918</v>
+        <v>2.597620388866088</v>
       </c>
       <c r="I14">
-        <v>1.68654151015918</v>
+        <v>2.597620388866088</v>
       </c>
       <c r="J14">
-        <v>0.4331838084551377</v>
+        <v>4.440285117153524</v>
       </c>
       <c r="K14">
-        <v>0.4331838084551377</v>
+        <v>4.440285117153524</v>
       </c>
       <c r="L14">
-        <v>0.551084634679422</v>
+        <v>1.727882818191312</v>
       </c>
       <c r="M14">
-        <v>1.118813072419301</v>
+        <v>2.1627516035287</v>
       </c>
       <c r="N14">
-        <v>1.118813072419301</v>
+        <v>2.1627516035287</v>
       </c>
       <c r="O14">
-        <v>1.30863076482901</v>
+        <v>1.843720180876501</v>
       </c>
       <c r="P14">
-        <v>0.8902699844312464</v>
+        <v>2.921929441403641</v>
       </c>
       <c r="Q14">
-        <v>0.8902699844312464</v>
+        <v>2.921929441403641</v>
       </c>
       <c r="R14">
-        <v>0.7759984404372192</v>
+        <v>3.301518360341112</v>
       </c>
       <c r="S14">
-        <v>0.7759984404372192</v>
+        <v>3.301518360341112</v>
       </c>
       <c r="T14">
-        <v>1.033351746371087</v>
+        <v>2.049326757922947</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.3878749146360924</v>
+        <v>1.279369148168113</v>
       </c>
       <c r="D15">
-        <v>1.471135685741275</v>
+        <v>1.026882016517201</v>
       </c>
       <c r="E15">
-        <v>0.3973658516338666</v>
+        <v>1.059731994575641</v>
       </c>
       <c r="F15">
-        <v>0.970124542052011</v>
+        <v>1.015249891263798</v>
       </c>
       <c r="G15">
-        <v>0.7411530584963391</v>
+        <v>1.063184865700973</v>
       </c>
       <c r="H15">
-        <v>0.05381285810825413</v>
+        <v>1.12956770869193</v>
       </c>
       <c r="I15">
-        <v>0.05381285810825413</v>
+        <v>1.12956770869193</v>
       </c>
       <c r="J15">
-        <v>0.3878749146360924</v>
+        <v>1.279369148168113</v>
       </c>
       <c r="K15">
-        <v>0.3878749146360924</v>
+        <v>1.279369148168113</v>
       </c>
       <c r="L15">
-        <v>0.7411530584963391</v>
+        <v>1.063184865700973</v>
       </c>
       <c r="M15">
-        <v>0.3974829583022966</v>
+        <v>1.096376287196452</v>
       </c>
       <c r="N15">
-        <v>0.3974829583022966</v>
+        <v>1.096376287196452</v>
       </c>
       <c r="O15">
-        <v>0.7553672007819562</v>
+        <v>1.073211530303368</v>
       </c>
       <c r="P15">
-        <v>0.3942802770802285</v>
+        <v>1.157373907520339</v>
       </c>
       <c r="Q15">
-        <v>0.3942802770802285</v>
+        <v>1.157373907520339</v>
       </c>
       <c r="R15">
-        <v>0.3926789364691945</v>
+        <v>1.187872717682282</v>
       </c>
       <c r="S15">
-        <v>0.3926789364691945</v>
+        <v>1.187872717682282</v>
       </c>
       <c r="T15">
-        <v>0.6702444851113064</v>
+        <v>1.095664270819609</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>4.502640308688352</v>
+        <v>1.604907144245246</v>
       </c>
       <c r="D16">
-        <v>1.54232557558251</v>
+        <v>1.078123803187341</v>
       </c>
       <c r="E16">
-        <v>1.184528897662039</v>
+        <v>1.208034769188831</v>
       </c>
       <c r="F16">
-        <v>1.415719066448759</v>
+        <v>1.092598002071044</v>
       </c>
       <c r="G16">
-        <v>1.47571204885358</v>
+        <v>1.117738869766187</v>
       </c>
       <c r="H16">
-        <v>2.437485896024015</v>
+        <v>1.405099968017963</v>
       </c>
       <c r="I16">
-        <v>2.437485896024015</v>
+        <v>1.405099968017963</v>
       </c>
       <c r="J16">
-        <v>4.502640308688352</v>
+        <v>1.604907144245246</v>
       </c>
       <c r="K16">
-        <v>4.502640308688352</v>
+        <v>1.604907144245246</v>
       </c>
       <c r="L16">
-        <v>1.47571204885358</v>
+        <v>1.117738869766187</v>
       </c>
       <c r="M16">
-        <v>1.956598972438798</v>
+        <v>1.261419418892075</v>
       </c>
       <c r="N16">
-        <v>1.956598972438798</v>
+        <v>1.261419418892075</v>
       </c>
       <c r="O16">
-        <v>1.818507840153368</v>
+        <v>1.200320880323831</v>
       </c>
       <c r="P16">
-        <v>2.805279417855316</v>
+        <v>1.375915327343132</v>
       </c>
       <c r="Q16">
-        <v>2.805279417855316</v>
+        <v>1.375915327343132</v>
       </c>
       <c r="R16">
-        <v>3.229619640563575</v>
+        <v>1.433163281568661</v>
       </c>
       <c r="S16">
-        <v>3.229619640563575</v>
+        <v>1.433163281568661</v>
       </c>
       <c r="T16">
-        <v>2.093068632209876</v>
+        <v>1.251083759412769</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>3.345277543773531</v>
+        <v>3.368366448052184</v>
       </c>
       <c r="D17">
-        <v>1.341215667302578</v>
+        <v>1.10876879048947</v>
       </c>
       <c r="E17">
-        <v>1.434220453454749</v>
+        <v>1.899722293553348</v>
       </c>
       <c r="F17">
-        <v>1.253073557808155</v>
+        <v>1.441796132611467</v>
       </c>
       <c r="G17">
-        <v>1.412514751364288</v>
+        <v>1.240578336235678</v>
       </c>
       <c r="H17">
-        <v>2.369319105502906</v>
+        <v>1.539758256441217</v>
       </c>
       <c r="I17">
-        <v>2.369319105502906</v>
+        <v>1.539758256441217</v>
       </c>
       <c r="J17">
-        <v>3.345277543773531</v>
+        <v>3.368366448052184</v>
       </c>
       <c r="K17">
-        <v>3.345277543773531</v>
+        <v>3.368366448052184</v>
       </c>
       <c r="L17">
-        <v>1.412514751364288</v>
+        <v>1.240578336235678</v>
       </c>
       <c r="M17">
-        <v>1.890916928433597</v>
+        <v>1.390168296338448</v>
       </c>
       <c r="N17">
-        <v>1.890916928433597</v>
+        <v>1.390168296338448</v>
       </c>
       <c r="O17">
-        <v>1.707683174723257</v>
+        <v>1.296368461055455</v>
       </c>
       <c r="P17">
-        <v>2.375703800213575</v>
+        <v>2.049567680243026</v>
       </c>
       <c r="Q17">
-        <v>2.375703800213575</v>
+        <v>2.049567680243026</v>
       </c>
       <c r="R17">
-        <v>2.618097236103564</v>
+        <v>2.379267372195316</v>
       </c>
       <c r="S17">
-        <v>2.618097236103564</v>
+        <v>2.379267372195316</v>
       </c>
       <c r="T17">
-        <v>1.859270179867701</v>
+        <v>1.766498376230561</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.318927481847179</v>
+        <v>6.302525156061162</v>
       </c>
       <c r="D18">
-        <v>0.8722188789010191</v>
+        <v>1.024925290857417</v>
       </c>
       <c r="E18">
-        <v>2.116655854712541</v>
+        <v>2.178160881177463</v>
       </c>
       <c r="F18">
-        <v>0.9639999781492327</v>
+        <v>0.9254422178677697</v>
       </c>
       <c r="G18">
-        <v>1.39323811188745</v>
+        <v>2.409693711998406</v>
       </c>
       <c r="H18">
-        <v>2.181013690472728</v>
+        <v>4.669056893919244</v>
       </c>
       <c r="I18">
-        <v>2.181013690472728</v>
+        <v>4.669056893919244</v>
       </c>
       <c r="J18">
-        <v>1.318927481847179</v>
+        <v>6.302525156061162</v>
       </c>
       <c r="K18">
-        <v>1.318927481847179</v>
+        <v>6.302525156061162</v>
       </c>
       <c r="L18">
-        <v>1.39323811188745</v>
+        <v>2.409693711998406</v>
       </c>
       <c r="M18">
-        <v>1.787125901180089</v>
+        <v>3.539375302958825</v>
       </c>
       <c r="N18">
-        <v>1.787125901180089</v>
+        <v>3.539375302958825</v>
       </c>
       <c r="O18">
-        <v>1.482156893753732</v>
+        <v>2.701225298925022</v>
       </c>
       <c r="P18">
-        <v>1.631059761402452</v>
+        <v>4.460425253992938</v>
       </c>
       <c r="Q18">
-        <v>1.631059761402452</v>
+        <v>4.460425253992937</v>
       </c>
       <c r="R18">
-        <v>1.553026691513634</v>
+        <v>4.920950229509994</v>
       </c>
       <c r="S18">
-        <v>1.553026691513634</v>
+        <v>4.920950229509994</v>
       </c>
       <c r="T18">
-        <v>1.474342332661691</v>
+        <v>2.918300691980244</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.291945815166263</v>
+        <v>1.068612293597848</v>
       </c>
       <c r="D19">
-        <v>0.8839885092381518</v>
+        <v>0.9895695433135079</v>
       </c>
       <c r="E19">
-        <v>2.703108313552943</v>
+        <v>1.051272000219251</v>
       </c>
       <c r="F19">
-        <v>1.022868725713039</v>
+        <v>0.9929550319286998</v>
       </c>
       <c r="G19">
-        <v>1.483016468541681</v>
+        <v>1.016402146675627</v>
       </c>
       <c r="H19">
-        <v>3.137583263206567</v>
+        <v>1.048307695879739</v>
       </c>
       <c r="I19">
-        <v>3.137583263206567</v>
+        <v>1.048307695879739</v>
       </c>
       <c r="J19">
-        <v>1.291945815166263</v>
+        <v>1.068612293597848</v>
       </c>
       <c r="K19">
-        <v>1.291945815166263</v>
+        <v>1.068612293597848</v>
       </c>
       <c r="L19">
-        <v>1.483016468541681</v>
+        <v>1.016402146675627</v>
       </c>
       <c r="M19">
-        <v>2.310299865874124</v>
+        <v>1.032354921277683</v>
       </c>
       <c r="N19">
-        <v>2.310299865874124</v>
+        <v>1.032354921277683</v>
       </c>
       <c r="O19">
-        <v>1.834862746995466</v>
+        <v>1.018093128622958</v>
       </c>
       <c r="P19">
-        <v>1.97084851563817</v>
+        <v>1.044440712051071</v>
       </c>
       <c r="Q19">
-        <v>1.97084851563817</v>
+        <v>1.044440712051071</v>
       </c>
       <c r="R19">
-        <v>1.801122840520193</v>
+        <v>1.050483607437765</v>
       </c>
       <c r="S19">
-        <v>1.801122840520193</v>
+        <v>1.050483607437765</v>
       </c>
       <c r="T19">
-        <v>1.753751849236441</v>
+        <v>1.027853118602446</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.024608641764953</v>
+        <v>1.120079853657215</v>
       </c>
       <c r="D20">
-        <v>0.9927595455151678</v>
+        <v>0.9961329895178055</v>
       </c>
       <c r="E20">
-        <v>1.05958645892131</v>
+        <v>1.077861162212376</v>
       </c>
       <c r="F20">
-        <v>0.992762207928804</v>
+        <v>0.990415576587013</v>
       </c>
       <c r="G20">
-        <v>1.022433899537182</v>
+        <v>1.019986702077031</v>
       </c>
       <c r="H20">
-        <v>1.036106362533283</v>
+        <v>1.079326715570113</v>
       </c>
       <c r="I20">
-        <v>1.036106362533283</v>
+        <v>1.079326715570113</v>
       </c>
       <c r="J20">
-        <v>1.024608641764953</v>
+        <v>1.120079853657215</v>
       </c>
       <c r="K20">
-        <v>1.024608641764953</v>
+        <v>1.120079853657215</v>
       </c>
       <c r="L20">
-        <v>1.022433899537182</v>
+        <v>1.019986702077031</v>
       </c>
       <c r="M20">
-        <v>1.029270131035232</v>
+        <v>1.049656708823572</v>
       </c>
       <c r="N20">
-        <v>1.029270131035232</v>
+        <v>1.049656708823572</v>
       </c>
       <c r="O20">
-        <v>1.017099935861878</v>
+        <v>1.031815469054983</v>
       </c>
       <c r="P20">
-        <v>1.027716301278472</v>
+        <v>1.073131090434786</v>
       </c>
       <c r="Q20">
-        <v>1.027716301278472</v>
+        <v>1.073131090434786</v>
       </c>
       <c r="R20">
-        <v>1.026939386400093</v>
+        <v>1.084868281240393</v>
       </c>
       <c r="S20">
-        <v>1.026939386400093</v>
+        <v>1.084868281240393</v>
       </c>
       <c r="T20">
-        <v>1.02137618603345</v>
+        <v>1.047300499936925</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.137781263764229</v>
+        <v>1.356808716248784</v>
       </c>
       <c r="D21">
-        <v>0.9884318269651895</v>
+        <v>0.9775566515409007</v>
       </c>
       <c r="E21">
-        <v>1.02698613553563</v>
+        <v>1.062092622749021</v>
       </c>
       <c r="F21">
-        <v>1.004898742426084</v>
+        <v>0.9670447000266864</v>
       </c>
       <c r="G21">
-        <v>1.011296751049787</v>
+        <v>1.053136621842351</v>
       </c>
       <c r="H21">
-        <v>1.08997083278909</v>
+        <v>1.081777908150743</v>
       </c>
       <c r="I21">
-        <v>1.08997083278909</v>
+        <v>1.081777908150743</v>
       </c>
       <c r="J21">
-        <v>1.137781263764229</v>
+        <v>1.356808716248784</v>
       </c>
       <c r="K21">
-        <v>1.137781263764229</v>
+        <v>1.356808716248784</v>
       </c>
       <c r="L21">
-        <v>1.011296751049787</v>
+        <v>1.053136621842351</v>
       </c>
       <c r="M21">
-        <v>1.050633791919439</v>
+        <v>1.067457264996547</v>
       </c>
       <c r="N21">
-        <v>1.050633791919439</v>
+        <v>1.067457264996547</v>
       </c>
       <c r="O21">
-        <v>1.029899803601356</v>
+        <v>1.037490393844665</v>
       </c>
       <c r="P21">
-        <v>1.079682949201035</v>
+        <v>1.163907748747293</v>
       </c>
       <c r="Q21">
-        <v>1.079682949201035</v>
+        <v>1.163907748747293</v>
       </c>
       <c r="R21">
-        <v>1.094207527841834</v>
+        <v>1.212132990622666</v>
       </c>
       <c r="S21">
-        <v>1.094207527841834</v>
+        <v>1.212132990622666</v>
       </c>
       <c r="T21">
-        <v>1.043227592088335</v>
+        <v>1.083069536759748</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>2.169279399762387</v>
+        <v>1.629303113505301</v>
       </c>
       <c r="D22">
-        <v>0.8578067086736187</v>
+        <v>0.945535192699863</v>
       </c>
       <c r="E22">
-        <v>1.137487446839503</v>
+        <v>1.216667553042504</v>
       </c>
       <c r="F22">
-        <v>1.091825415556994</v>
+        <v>1.066899928545225</v>
       </c>
       <c r="G22">
-        <v>0.9920568935057734</v>
+        <v>1.112454650553862</v>
       </c>
       <c r="H22">
-        <v>1.436642021320401</v>
+        <v>1.152479375929933</v>
       </c>
       <c r="I22">
-        <v>1.436642021320401</v>
+        <v>1.152479375929933</v>
       </c>
       <c r="J22">
-        <v>2.169279399762387</v>
+        <v>1.629303113505301</v>
       </c>
       <c r="K22">
-        <v>2.169279399762387</v>
+        <v>1.629303113505301</v>
       </c>
       <c r="L22">
-        <v>0.9920568935057734</v>
+        <v>1.112454650553862</v>
       </c>
       <c r="M22">
-        <v>1.214349457413087</v>
+        <v>1.132467013241897</v>
       </c>
       <c r="N22">
-        <v>1.214349457413087</v>
+        <v>1.132467013241897</v>
       </c>
       <c r="O22">
-        <v>1.095501874499931</v>
+        <v>1.070156406394553</v>
       </c>
       <c r="P22">
-        <v>1.532659438196187</v>
+        <v>1.298079046663032</v>
       </c>
       <c r="Q22">
-        <v>1.532659438196187</v>
+        <v>1.298079046663032</v>
       </c>
       <c r="R22">
-        <v>1.691814428587737</v>
+        <v>1.380885063373599</v>
       </c>
       <c r="S22">
-        <v>1.691814428587737</v>
+        <v>1.380885063373599</v>
       </c>
       <c r="T22">
-        <v>1.280849647609779</v>
+        <v>1.187223302379448</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>2.361611064393339</v>
+      </c>
+      <c r="D23">
+        <v>0.8943345638236021</v>
+      </c>
+      <c r="E23">
+        <v>1.373991877182963</v>
+      </c>
+      <c r="F23">
+        <v>0.9182615591955541</v>
+      </c>
+      <c r="G23">
+        <v>1.178134395220268</v>
+      </c>
+      <c r="H23">
+        <v>1.346328388165785</v>
+      </c>
+      <c r="I23">
+        <v>1.346328388165785</v>
+      </c>
+      <c r="J23">
+        <v>2.361611064393339</v>
+      </c>
+      <c r="K23">
+        <v>2.361611064393339</v>
+      </c>
+      <c r="L23">
+        <v>1.178134395220268</v>
+      </c>
+      <c r="M23">
+        <v>1.262231391693026</v>
+      </c>
+      <c r="N23">
+        <v>1.262231391693026</v>
+      </c>
+      <c r="O23">
+        <v>1.139599115736552</v>
+      </c>
+      <c r="P23">
+        <v>1.62869128259313</v>
+      </c>
+      <c r="Q23">
+        <v>1.62869128259313</v>
+      </c>
+      <c r="R23">
+        <v>1.811921228043182</v>
+      </c>
+      <c r="S23">
+        <v>1.811921228043182</v>
+      </c>
+      <c r="T23">
+        <v>1.345443641330252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.705554643115539</v>
+      </c>
+      <c r="D24">
+        <v>1.60510479929576</v>
+      </c>
+      <c r="E24">
+        <v>0.0009603180863463678</v>
+      </c>
+      <c r="F24">
+        <v>1.44589577300558</v>
+      </c>
+      <c r="G24">
+        <v>1.042010413470588</v>
+      </c>
+      <c r="H24">
+        <v>0.002485235279404896</v>
+      </c>
+      <c r="I24">
+        <v>0.002485235279404896</v>
+      </c>
+      <c r="J24">
+        <v>1.705554643115539</v>
+      </c>
+      <c r="K24">
+        <v>1.705554643115539</v>
+      </c>
+      <c r="L24">
+        <v>1.042010413470588</v>
+      </c>
+      <c r="M24">
+        <v>0.5222478243749965</v>
+      </c>
+      <c r="N24">
+        <v>0.5222478243749965</v>
+      </c>
+      <c r="O24">
+        <v>0.8832001493485843</v>
+      </c>
+      <c r="P24">
+        <v>0.9166834306218439</v>
+      </c>
+      <c r="Q24">
+        <v>0.9166834306218439</v>
+      </c>
+      <c r="R24">
+        <v>1.113901233745268</v>
+      </c>
+      <c r="S24">
+        <v>1.113901233745268</v>
+      </c>
+      <c r="T24">
+        <v>0.9670018637088696</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.069219111067938</v>
+      </c>
+      <c r="D25">
+        <v>0.7245298929213373</v>
+      </c>
+      <c r="E25">
+        <v>1.669950404516509</v>
+      </c>
+      <c r="F25">
+        <v>0.9738373934482308</v>
+      </c>
+      <c r="G25">
+        <v>1.255596748899099</v>
+      </c>
+      <c r="H25">
+        <v>2.918949149647179</v>
+      </c>
+      <c r="I25">
+        <v>2.918949149647179</v>
+      </c>
+      <c r="J25">
+        <v>1.069219111067938</v>
+      </c>
+      <c r="K25">
+        <v>1.069219111067938</v>
+      </c>
+      <c r="L25">
+        <v>1.255596748899099</v>
+      </c>
+      <c r="M25">
+        <v>2.087272949273139</v>
+      </c>
+      <c r="N25">
+        <v>2.087272949273139</v>
+      </c>
+      <c r="O25">
+        <v>1.633025263822539</v>
+      </c>
+      <c r="P25">
+        <v>1.747921669871406</v>
+      </c>
+      <c r="Q25">
+        <v>1.747921669871406</v>
+      </c>
+      <c r="R25">
+        <v>1.578246030170539</v>
+      </c>
+      <c r="S25">
+        <v>1.578246030170539</v>
+      </c>
+      <c r="T25">
+        <v>1.435347116750049</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.4331838084551377</v>
+      </c>
+      <c r="D26">
+        <v>1.688266149648427</v>
+      </c>
+      <c r="E26">
+        <v>0.6126721767637138</v>
+      </c>
+      <c r="F26">
+        <v>1.228362198520639</v>
+      </c>
+      <c r="G26">
+        <v>0.551084634679422</v>
+      </c>
+      <c r="H26">
+        <v>1.68654151015918</v>
+      </c>
+      <c r="I26">
+        <v>1.68654151015918</v>
+      </c>
+      <c r="J26">
+        <v>0.4331838084551377</v>
+      </c>
+      <c r="K26">
+        <v>0.4331838084551377</v>
+      </c>
+      <c r="L26">
+        <v>0.551084634679422</v>
+      </c>
+      <c r="M26">
+        <v>1.118813072419301</v>
+      </c>
+      <c r="N26">
+        <v>1.118813072419301</v>
+      </c>
+      <c r="O26">
+        <v>1.30863076482901</v>
+      </c>
+      <c r="P26">
+        <v>0.8902699844312464</v>
+      </c>
+      <c r="Q26">
+        <v>0.8902699844312464</v>
+      </c>
+      <c r="R26">
+        <v>0.7759984404372192</v>
+      </c>
+      <c r="S26">
+        <v>0.7759984404372192</v>
+      </c>
+      <c r="T26">
+        <v>1.033351746371087</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.3878749146360924</v>
+      </c>
+      <c r="D27">
+        <v>1.471135685741275</v>
+      </c>
+      <c r="E27">
+        <v>0.3973658516338666</v>
+      </c>
+      <c r="F27">
+        <v>0.970124542052011</v>
+      </c>
+      <c r="G27">
+        <v>0.7411530584963391</v>
+      </c>
+      <c r="H27">
+        <v>0.05381285810825413</v>
+      </c>
+      <c r="I27">
+        <v>0.05381285810825413</v>
+      </c>
+      <c r="J27">
+        <v>0.3878749146360924</v>
+      </c>
+      <c r="K27">
+        <v>0.3878749146360924</v>
+      </c>
+      <c r="L27">
+        <v>0.7411530584963391</v>
+      </c>
+      <c r="M27">
+        <v>0.3974829583022966</v>
+      </c>
+      <c r="N27">
+        <v>0.3974829583022966</v>
+      </c>
+      <c r="O27">
+        <v>0.7553672007819562</v>
+      </c>
+      <c r="P27">
+        <v>0.3942802770802285</v>
+      </c>
+      <c r="Q27">
+        <v>0.3942802770802285</v>
+      </c>
+      <c r="R27">
+        <v>0.3926789364691945</v>
+      </c>
+      <c r="S27">
+        <v>0.3926789364691945</v>
+      </c>
+      <c r="T27">
+        <v>0.6702444851113064</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>4.502640308688352</v>
+      </c>
+      <c r="D28">
+        <v>1.54232557558251</v>
+      </c>
+      <c r="E28">
+        <v>1.184528897662039</v>
+      </c>
+      <c r="F28">
+        <v>1.415719066448759</v>
+      </c>
+      <c r="G28">
+        <v>1.47571204885358</v>
+      </c>
+      <c r="H28">
+        <v>2.437485896024015</v>
+      </c>
+      <c r="I28">
+        <v>2.437485896024015</v>
+      </c>
+      <c r="J28">
+        <v>4.502640308688352</v>
+      </c>
+      <c r="K28">
+        <v>4.502640308688352</v>
+      </c>
+      <c r="L28">
+        <v>1.47571204885358</v>
+      </c>
+      <c r="M28">
+        <v>1.956598972438798</v>
+      </c>
+      <c r="N28">
+        <v>1.956598972438798</v>
+      </c>
+      <c r="O28">
+        <v>1.818507840153368</v>
+      </c>
+      <c r="P28">
+        <v>2.805279417855316</v>
+      </c>
+      <c r="Q28">
+        <v>2.805279417855316</v>
+      </c>
+      <c r="R28">
+        <v>3.229619640563575</v>
+      </c>
+      <c r="S28">
+        <v>3.229619640563575</v>
+      </c>
+      <c r="T28">
+        <v>2.093068632209876</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>3.345277543773531</v>
+      </c>
+      <c r="D29">
+        <v>1.341215667302578</v>
+      </c>
+      <c r="E29">
+        <v>1.434220453454749</v>
+      </c>
+      <c r="F29">
+        <v>1.253073557808155</v>
+      </c>
+      <c r="G29">
+        <v>1.412514751364288</v>
+      </c>
+      <c r="H29">
+        <v>2.369319105502906</v>
+      </c>
+      <c r="I29">
+        <v>2.369319105502906</v>
+      </c>
+      <c r="J29">
+        <v>3.345277543773531</v>
+      </c>
+      <c r="K29">
+        <v>3.345277543773531</v>
+      </c>
+      <c r="L29">
+        <v>1.412514751364288</v>
+      </c>
+      <c r="M29">
+        <v>1.890916928433597</v>
+      </c>
+      <c r="N29">
+        <v>1.890916928433597</v>
+      </c>
+      <c r="O29">
+        <v>1.707683174723257</v>
+      </c>
+      <c r="P29">
+        <v>2.375703800213575</v>
+      </c>
+      <c r="Q29">
+        <v>2.375703800213575</v>
+      </c>
+      <c r="R29">
+        <v>2.618097236103564</v>
+      </c>
+      <c r="S29">
+        <v>2.618097236103564</v>
+      </c>
+      <c r="T29">
+        <v>1.859270179867701</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.318927481847179</v>
+      </c>
+      <c r="D30">
+        <v>0.8722188789010191</v>
+      </c>
+      <c r="E30">
+        <v>2.116655854712541</v>
+      </c>
+      <c r="F30">
+        <v>0.9639999781492327</v>
+      </c>
+      <c r="G30">
+        <v>1.39323811188745</v>
+      </c>
+      <c r="H30">
+        <v>2.181013690472728</v>
+      </c>
+      <c r="I30">
+        <v>2.181013690472728</v>
+      </c>
+      <c r="J30">
+        <v>1.318927481847179</v>
+      </c>
+      <c r="K30">
+        <v>1.318927481847179</v>
+      </c>
+      <c r="L30">
+        <v>1.39323811188745</v>
+      </c>
+      <c r="M30">
+        <v>1.787125901180089</v>
+      </c>
+      <c r="N30">
+        <v>1.787125901180089</v>
+      </c>
+      <c r="O30">
+        <v>1.482156893753732</v>
+      </c>
+      <c r="P30">
+        <v>1.631059761402452</v>
+      </c>
+      <c r="Q30">
+        <v>1.631059761402452</v>
+      </c>
+      <c r="R30">
+        <v>1.553026691513634</v>
+      </c>
+      <c r="S30">
+        <v>1.553026691513634</v>
+      </c>
+      <c r="T30">
+        <v>1.474342332661691</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.291945815166263</v>
+      </c>
+      <c r="D31">
+        <v>0.8839885092381518</v>
+      </c>
+      <c r="E31">
+        <v>2.703108313552943</v>
+      </c>
+      <c r="F31">
+        <v>1.022868725713039</v>
+      </c>
+      <c r="G31">
+        <v>1.483016468541681</v>
+      </c>
+      <c r="H31">
+        <v>3.137583263206567</v>
+      </c>
+      <c r="I31">
+        <v>3.137583263206567</v>
+      </c>
+      <c r="J31">
+        <v>1.291945815166263</v>
+      </c>
+      <c r="K31">
+        <v>1.291945815166263</v>
+      </c>
+      <c r="L31">
+        <v>1.483016468541681</v>
+      </c>
+      <c r="M31">
+        <v>2.310299865874124</v>
+      </c>
+      <c r="N31">
+        <v>2.310299865874124</v>
+      </c>
+      <c r="O31">
+        <v>1.834862746995466</v>
+      </c>
+      <c r="P31">
+        <v>1.97084851563817</v>
+      </c>
+      <c r="Q31">
+        <v>1.97084851563817</v>
+      </c>
+      <c r="R31">
+        <v>1.801122840520193</v>
+      </c>
+      <c r="S31">
+        <v>1.801122840520193</v>
+      </c>
+      <c r="T31">
+        <v>1.753751849236441</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>7.263329451383068</v>
+      </c>
+      <c r="D32">
+        <v>1.718655274946576</v>
+      </c>
+      <c r="E32">
+        <v>0.9382174675479452</v>
+      </c>
+      <c r="F32">
+        <v>1.555829678690247</v>
+      </c>
+      <c r="G32">
+        <v>1.522394856945206</v>
+      </c>
+      <c r="H32">
+        <v>2.492675206161095</v>
+      </c>
+      <c r="I32">
+        <v>2.492675206161095</v>
+      </c>
+      <c r="J32">
+        <v>7.263329451383068</v>
+      </c>
+      <c r="K32">
+        <v>7.263329451383068</v>
+      </c>
+      <c r="L32">
+        <v>1.522394856945206</v>
+      </c>
+      <c r="M32">
+        <v>2.00753503155315</v>
+      </c>
+      <c r="N32">
+        <v>2.00753503155315</v>
+      </c>
+      <c r="O32">
+        <v>1.911241779350959</v>
+      </c>
+      <c r="P32">
+        <v>3.75946650482979</v>
+      </c>
+      <c r="Q32">
+        <v>3.75946650482979</v>
+      </c>
+      <c r="R32">
+        <v>4.635432241468109</v>
+      </c>
+      <c r="S32">
+        <v>4.635432241468109</v>
+      </c>
+      <c r="T32">
+        <v>2.581850322612356</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>4.052230811670526</v>
+      </c>
+      <c r="D33">
+        <v>0.001653716411578947</v>
+      </c>
+      <c r="E33">
+        <v>12.13835804947369</v>
+      </c>
+      <c r="F33">
+        <v>-0.005626627673684209</v>
+      </c>
+      <c r="G33">
+        <v>4.045530941157893</v>
+      </c>
+      <c r="H33">
+        <v>8.103328102157372</v>
+      </c>
+      <c r="I33">
+        <v>8.103328102157372</v>
+      </c>
+      <c r="J33">
+        <v>4.052230811670526</v>
+      </c>
+      <c r="K33">
+        <v>4.052230811670526</v>
+      </c>
+      <c r="L33">
+        <v>4.045530941157893</v>
+      </c>
+      <c r="M33">
+        <v>6.074429521657633</v>
+      </c>
+      <c r="N33">
+        <v>6.074429521657633</v>
+      </c>
+      <c r="O33">
+        <v>4.050170919908948</v>
+      </c>
+      <c r="P33">
+        <v>5.400363284995264</v>
+      </c>
+      <c r="Q33">
+        <v>5.400363284995264</v>
+      </c>
+      <c r="R33">
+        <v>5.06333016666408</v>
+      </c>
+      <c r="S33">
+        <v>5.06333016666408</v>
+      </c>
+      <c r="T33">
+        <v>4.722579165532895</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>7.979312787437896</v>
+      </c>
+      <c r="D34">
+        <v>0.2759162879236842</v>
+      </c>
+      <c r="E34">
+        <v>3.484395027764211</v>
+      </c>
+      <c r="F34">
+        <v>1.566428756198421</v>
+      </c>
+      <c r="G34">
+        <v>1.896432722231052</v>
+      </c>
+      <c r="H34">
+        <v>2.259136785006686</v>
+      </c>
+      <c r="I34">
+        <v>2.259136785006686</v>
+      </c>
+      <c r="J34">
+        <v>7.979312787437896</v>
+      </c>
+      <c r="K34">
+        <v>7.979312787437896</v>
+      </c>
+      <c r="L34">
+        <v>1.896432722231052</v>
+      </c>
+      <c r="M34">
+        <v>2.077784753618869</v>
+      </c>
+      <c r="N34">
+        <v>2.077784753618869</v>
+      </c>
+      <c r="O34">
+        <v>1.477161931720474</v>
+      </c>
+      <c r="P34">
+        <v>4.044960764891878</v>
+      </c>
+      <c r="Q34">
+        <v>4.044960764891878</v>
+      </c>
+      <c r="R34">
+        <v>5.028548770528382</v>
+      </c>
+      <c r="S34">
+        <v>5.028548770528382</v>
+      </c>
+      <c r="T34">
+        <v>2.910270394426992</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.4428852883562573</v>
+      </c>
+      <c r="D35">
+        <v>0.4686054254572429</v>
+      </c>
+      <c r="E35">
+        <v>16.06109719942996</v>
+      </c>
+      <c r="F35">
+        <v>0.4692314428937391</v>
+      </c>
+      <c r="G35">
+        <v>5.682126891637458</v>
+      </c>
+      <c r="H35">
+        <v>21.24948437995802</v>
+      </c>
+      <c r="I35">
+        <v>21.24948437995802</v>
+      </c>
+      <c r="J35">
+        <v>0.4428852883562573</v>
+      </c>
+      <c r="K35">
+        <v>0.4428852883562573</v>
+      </c>
+      <c r="L35">
+        <v>5.682126891637458</v>
+      </c>
+      <c r="M35">
+        <v>13.46580563579774</v>
+      </c>
+      <c r="N35">
+        <v>13.46580563579774</v>
+      </c>
+      <c r="O35">
+        <v>9.133405565684241</v>
+      </c>
+      <c r="P35">
+        <v>9.124832186650579</v>
+      </c>
+      <c r="Q35">
+        <v>9.124832186650579</v>
+      </c>
+      <c r="R35">
+        <v>6.954345462076999</v>
+      </c>
+      <c r="S35">
+        <v>6.954345462076999</v>
+      </c>
+      <c r="T35">
+        <v>7.39557177128878</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.024608641764953</v>
+      </c>
+      <c r="D36">
+        <v>0.9927595455151678</v>
+      </c>
+      <c r="E36">
+        <v>1.05958645892131</v>
+      </c>
+      <c r="F36">
+        <v>0.992762207928804</v>
+      </c>
+      <c r="G36">
+        <v>1.022433899537182</v>
+      </c>
+      <c r="H36">
+        <v>1.036106362533283</v>
+      </c>
+      <c r="I36">
+        <v>1.036106362533283</v>
+      </c>
+      <c r="J36">
+        <v>1.024608641764953</v>
+      </c>
+      <c r="K36">
+        <v>1.024608641764953</v>
+      </c>
+      <c r="L36">
+        <v>1.022433899537182</v>
+      </c>
+      <c r="M36">
+        <v>1.029270131035232</v>
+      </c>
+      <c r="N36">
+        <v>1.029270131035232</v>
+      </c>
+      <c r="O36">
+        <v>1.017099935861878</v>
+      </c>
+      <c r="P36">
+        <v>1.027716301278472</v>
+      </c>
+      <c r="Q36">
+        <v>1.027716301278472</v>
+      </c>
+      <c r="R36">
+        <v>1.026939386400093</v>
+      </c>
+      <c r="S36">
+        <v>1.026939386400093</v>
+      </c>
+      <c r="T36">
+        <v>1.02137618603345</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.137781263764229</v>
+      </c>
+      <c r="D37">
+        <v>0.9884318269651895</v>
+      </c>
+      <c r="E37">
+        <v>1.02698613553563</v>
+      </c>
+      <c r="F37">
+        <v>1.004898742426084</v>
+      </c>
+      <c r="G37">
+        <v>1.011296751049787</v>
+      </c>
+      <c r="H37">
+        <v>1.08997083278909</v>
+      </c>
+      <c r="I37">
+        <v>1.08997083278909</v>
+      </c>
+      <c r="J37">
+        <v>1.137781263764229</v>
+      </c>
+      <c r="K37">
+        <v>1.137781263764229</v>
+      </c>
+      <c r="L37">
+        <v>1.011296751049787</v>
+      </c>
+      <c r="M37">
+        <v>1.050633791919439</v>
+      </c>
+      <c r="N37">
+        <v>1.050633791919439</v>
+      </c>
+      <c r="O37">
+        <v>1.029899803601356</v>
+      </c>
+      <c r="P37">
+        <v>1.079682949201035</v>
+      </c>
+      <c r="Q37">
+        <v>1.079682949201035</v>
+      </c>
+      <c r="R37">
+        <v>1.094207527841834</v>
+      </c>
+      <c r="S37">
+        <v>1.094207527841834</v>
+      </c>
+      <c r="T37">
+        <v>1.043227592088335</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>2.169279399762387</v>
+      </c>
+      <c r="D38">
+        <v>0.8578067086736187</v>
+      </c>
+      <c r="E38">
+        <v>1.137487446839503</v>
+      </c>
+      <c r="F38">
+        <v>1.091825415556994</v>
+      </c>
+      <c r="G38">
+        <v>0.9920568935057734</v>
+      </c>
+      <c r="H38">
+        <v>1.436642021320401</v>
+      </c>
+      <c r="I38">
+        <v>1.436642021320401</v>
+      </c>
+      <c r="J38">
+        <v>2.169279399762387</v>
+      </c>
+      <c r="K38">
+        <v>2.169279399762387</v>
+      </c>
+      <c r="L38">
+        <v>0.9920568935057734</v>
+      </c>
+      <c r="M38">
+        <v>1.214349457413087</v>
+      </c>
+      <c r="N38">
+        <v>1.214349457413087</v>
+      </c>
+      <c r="O38">
+        <v>1.095501874499931</v>
+      </c>
+      <c r="P38">
+        <v>1.532659438196187</v>
+      </c>
+      <c r="Q38">
+        <v>1.532659438196187</v>
+      </c>
+      <c r="R38">
+        <v>1.691814428587737</v>
+      </c>
+      <c r="S38">
+        <v>1.691814428587737</v>
+      </c>
+      <c r="T38">
+        <v>1.280849647609779</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.053908803073048</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.7524143986029078</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.526641711715784</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.156963855410678</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.069247385818606</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.942140374997898</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.942140374997898</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.053908803073048</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.053908803073048</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.069247385818606</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.505693880408252</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.505693880408252</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.254600719806471</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.355098854629851</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.355098854629851</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.27980134174065</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.27980134174065</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.250219421603154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.199068779750939</v>
+      </c>
+      <c r="D40">
+        <v>0.8032113772738989</v>
+      </c>
+      <c r="E40">
+        <v>1.714103526287078</v>
+      </c>
+      <c r="F40">
+        <v>0.9801024240181715</v>
+      </c>
+      <c r="G40">
+        <v>1.114660730763665</v>
+      </c>
+      <c r="H40">
+        <v>0.904415196490881</v>
+      </c>
+      <c r="I40">
+        <v>0.904415196490881</v>
+      </c>
+      <c r="J40">
+        <v>1.199068779750939</v>
+      </c>
+      <c r="K40">
+        <v>1.199068779750939</v>
+      </c>
+      <c r="L40">
+        <v>1.114660730763665</v>
+      </c>
+      <c r="M40">
+        <v>1.009537963627273</v>
+      </c>
+      <c r="N40">
+        <v>1.009537963627273</v>
+      </c>
+      <c r="O40">
+        <v>0.9407624348428151</v>
+      </c>
+      <c r="P40">
+        <v>1.072714902335162</v>
+      </c>
+      <c r="Q40">
+        <v>1.072714902335162</v>
+      </c>
+      <c r="R40">
+        <v>1.104303371689106</v>
+      </c>
+      <c r="S40">
+        <v>1.104303371689106</v>
+      </c>
+      <c r="T40">
+        <v>1.119260339097439</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.168510589803354</v>
+      </c>
+      <c r="D41">
+        <v>0.9775507080461753</v>
+      </c>
+      <c r="E41">
+        <v>0.7957950243949776</v>
+      </c>
+      <c r="F41">
+        <v>1.017229138257966</v>
+      </c>
+      <c r="G41">
+        <v>1.012400556989859</v>
+      </c>
+      <c r="H41">
+        <v>0.9992312070721582</v>
+      </c>
+      <c r="I41">
+        <v>0.9992312070721582</v>
+      </c>
+      <c r="J41">
+        <v>1.168510589803354</v>
+      </c>
+      <c r="K41">
+        <v>1.168510589803354</v>
+      </c>
+      <c r="L41">
+        <v>1.012400556989859</v>
+      </c>
+      <c r="M41">
+        <v>1.005815882031009</v>
+      </c>
+      <c r="N41">
+        <v>1.005815882031009</v>
+      </c>
+      <c r="O41">
+        <v>0.9963941573693975</v>
+      </c>
+      <c r="P41">
+        <v>1.060047451288457</v>
+      </c>
+      <c r="Q41">
+        <v>1.060047451288457</v>
+      </c>
+      <c r="R41">
+        <v>1.087163235917181</v>
+      </c>
+      <c r="S41">
+        <v>1.087163235917181</v>
+      </c>
+      <c r="T41">
+        <v>0.995119537427415</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.151957120835408</v>
+      </c>
+      <c r="D42">
+        <v>0.9638879126894256</v>
+      </c>
+      <c r="E42">
+        <v>1.162982207008217</v>
+      </c>
+      <c r="F42">
+        <v>1.009693476911787</v>
+      </c>
+      <c r="G42">
+        <v>1.093400121025095</v>
+      </c>
+      <c r="H42">
+        <v>1.062052090122408</v>
+      </c>
+      <c r="I42">
+        <v>1.062052090122408</v>
+      </c>
+      <c r="J42">
+        <v>1.151957120835408</v>
+      </c>
+      <c r="K42">
+        <v>1.151957120835408</v>
+      </c>
+      <c r="L42">
+        <v>1.093400121025095</v>
+      </c>
+      <c r="M42">
+        <v>1.077726105573751</v>
+      </c>
+      <c r="N42">
+        <v>1.077726105573751</v>
+      </c>
+      <c r="O42">
+        <v>1.039780041278976</v>
+      </c>
+      <c r="P42">
+        <v>1.102469777327637</v>
+      </c>
+      <c r="Q42">
+        <v>1.102469777327637</v>
+      </c>
+      <c r="R42">
+        <v>1.11484161320458</v>
+      </c>
+      <c r="S42">
+        <v>1.11484161320458</v>
+      </c>
+      <c r="T42">
+        <v>1.073995488098723</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/AlphaFiberF-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/AlphaFiberF-HW03.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
     <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,58 +582,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,58 +644,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.279369148168113</v>
+        <v>1.120079853657215</v>
       </c>
       <c r="D3">
-        <v>1.12956770869193</v>
+        <v>0.9961329895178055</v>
       </c>
       <c r="E3">
-        <v>1.063184865700973</v>
+        <v>1.077861162212376</v>
       </c>
       <c r="F3">
-        <v>1.279369148168113</v>
+        <v>0.990415576587013</v>
       </c>
       <c r="G3">
-        <v>1.059731994575641</v>
+        <v>1.019986702077031</v>
       </c>
       <c r="H3">
-        <v>1.026882016517201</v>
+        <v>1.079326715570113</v>
       </c>
       <c r="I3">
-        <v>1.015249891263798</v>
+        <v>1.079326715570113</v>
       </c>
       <c r="J3">
-        <v>1.12956770869193</v>
+        <v>1.120079853657215</v>
       </c>
       <c r="K3">
-        <v>1.279369148168113</v>
+        <v>1.120079853657215</v>
       </c>
       <c r="L3">
-        <v>1.063184865700973</v>
+        <v>1.019986702077031</v>
       </c>
       <c r="M3">
-        <v>1.096376287196452</v>
+        <v>1.049656708823572</v>
       </c>
       <c r="N3">
-        <v>1.096376287196452</v>
+        <v>1.049656708823572</v>
       </c>
       <c r="O3">
-        <v>1.073211530303368</v>
+        <v>1.031815469054983</v>
       </c>
       <c r="P3">
-        <v>1.157373907520339</v>
+        <v>1.073131090434786</v>
       </c>
       <c r="Q3">
-        <v>1.157373907520339</v>
+        <v>1.073131090434786</v>
       </c>
       <c r="R3">
-        <v>1.187872717682282</v>
+        <v>1.084868281240393</v>
       </c>
       <c r="S3">
-        <v>1.187872717682282</v>
+        <v>1.084868281240393</v>
       </c>
       <c r="T3">
-        <v>1.095664270819609</v>
+        <v>1.047300499936925</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,58 +706,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.604907144245246</v>
+        <v>1.199068779750939</v>
       </c>
       <c r="D4">
-        <v>1.405099968017963</v>
+        <v>0.8032113772738989</v>
       </c>
       <c r="E4">
-        <v>1.117738869766187</v>
+        <v>1.714103526287078</v>
       </c>
       <c r="F4">
-        <v>1.604907144245246</v>
+        <v>0.9801024240181715</v>
       </c>
       <c r="G4">
-        <v>1.208034769188831</v>
+        <v>1.114660730763665</v>
       </c>
       <c r="H4">
-        <v>1.078123803187341</v>
+        <v>0.904415196490881</v>
       </c>
       <c r="I4">
-        <v>1.092598002071044</v>
+        <v>0.904415196490881</v>
       </c>
       <c r="J4">
-        <v>1.405099968017963</v>
+        <v>1.199068779750939</v>
       </c>
       <c r="K4">
-        <v>1.604907144245246</v>
+        <v>1.199068779750939</v>
       </c>
       <c r="L4">
-        <v>1.117738869766187</v>
+        <v>1.114660730763665</v>
       </c>
       <c r="M4">
-        <v>1.261419418892075</v>
+        <v>1.009537963627273</v>
       </c>
       <c r="N4">
-        <v>1.261419418892075</v>
+        <v>1.009537963627273</v>
       </c>
       <c r="O4">
-        <v>1.200320880323831</v>
+        <v>0.9407624348428151</v>
       </c>
       <c r="P4">
-        <v>1.375915327343132</v>
+        <v>1.072714902335162</v>
       </c>
       <c r="Q4">
-        <v>1.375915327343132</v>
+        <v>1.072714902335162</v>
       </c>
       <c r="R4">
-        <v>1.433163281568661</v>
+        <v>1.104303371689106</v>
       </c>
       <c r="S4">
-        <v>1.433163281568661</v>
+        <v>1.104303371689106</v>
       </c>
       <c r="T4">
-        <v>1.251083759412769</v>
+        <v>1.119260339097439</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,58 +768,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>3.368366448052184</v>
+        <v>1.097655098868639</v>
       </c>
       <c r="D5">
-        <v>1.539758256441217</v>
+        <v>0.9266058341850941</v>
       </c>
       <c r="E5">
-        <v>1.240578336235678</v>
+        <v>2.612722075937493</v>
       </c>
       <c r="F5">
-        <v>3.368366448052184</v>
+        <v>0.9299062723889632</v>
       </c>
       <c r="G5">
-        <v>1.899722293553348</v>
+        <v>1.512226357570853</v>
       </c>
       <c r="H5">
-        <v>1.10876879048947</v>
+        <v>3.155020307254655</v>
       </c>
       <c r="I5">
-        <v>1.441796132611467</v>
+        <v>3.155020307254655</v>
       </c>
       <c r="J5">
-        <v>1.539758256441217</v>
+        <v>1.097655098868639</v>
       </c>
       <c r="K5">
-        <v>3.368366448052184</v>
+        <v>1.097655098868639</v>
       </c>
       <c r="L5">
-        <v>1.240578336235678</v>
+        <v>1.512226357570853</v>
       </c>
       <c r="M5">
-        <v>1.390168296338448</v>
+        <v>2.333623332412754</v>
       </c>
       <c r="N5">
-        <v>1.390168296338448</v>
+        <v>2.333623332412754</v>
       </c>
       <c r="O5">
-        <v>1.296368461055455</v>
+        <v>1.8646174996702</v>
       </c>
       <c r="P5">
-        <v>2.049567680243026</v>
+        <v>1.921633921231382</v>
       </c>
       <c r="Q5">
-        <v>2.049567680243026</v>
+        <v>1.921633921231382</v>
       </c>
       <c r="R5">
-        <v>2.379267372195316</v>
+        <v>1.715639215640696</v>
       </c>
       <c r="S5">
-        <v>2.379267372195316</v>
+        <v>1.715639215640696</v>
       </c>
       <c r="T5">
-        <v>1.766498376230561</v>
+        <v>1.705689324367616</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -800,58 +830,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>6.302525156061164</v>
+        <v>0.4428852883562573</v>
       </c>
       <c r="D6">
-        <v>4.669056893919244</v>
+        <v>0.4686054254572429</v>
       </c>
       <c r="E6">
-        <v>2.409693711998407</v>
+        <v>16.06109719942996</v>
       </c>
       <c r="F6">
-        <v>6.302525156061164</v>
+        <v>0.4692314428937391</v>
       </c>
       <c r="G6">
-        <v>2.178160881177463</v>
+        <v>5.682126891637458</v>
       </c>
       <c r="H6">
-        <v>1.024925290857417</v>
+        <v>21.24948437995802</v>
       </c>
       <c r="I6">
-        <v>0.9254422178677697</v>
+        <v>21.24948437995802</v>
       </c>
       <c r="J6">
-        <v>4.669056893919244</v>
+        <v>0.4428852883562573</v>
       </c>
       <c r="K6">
-        <v>6.302525156061164</v>
+        <v>0.4428852883562573</v>
       </c>
       <c r="L6">
-        <v>2.409693711998407</v>
+        <v>5.682126891637458</v>
       </c>
       <c r="M6">
-        <v>3.539375302958825</v>
+        <v>13.46580563579774</v>
       </c>
       <c r="N6">
-        <v>3.539375302958825</v>
+        <v>13.46580563579774</v>
       </c>
       <c r="O6">
-        <v>2.701225298925022</v>
+        <v>9.133405565684241</v>
       </c>
       <c r="P6">
-        <v>4.460425253992939</v>
+        <v>9.124832186650579</v>
       </c>
       <c r="Q6">
-        <v>4.460425253992939</v>
+        <v>9.124832186650579</v>
       </c>
       <c r="R6">
-        <v>4.920950229509995</v>
+        <v>6.954345462076999</v>
       </c>
       <c r="S6">
-        <v>4.920950229509995</v>
+        <v>6.954345462076999</v>
       </c>
       <c r="T6">
-        <v>2.918300691980244</v>
+        <v>7.39557177128878</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -862,58 +892,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.068612293597849</v>
+        <v>1.240254493033031</v>
       </c>
       <c r="D7">
-        <v>1.048307695879738</v>
+        <v>1.028613338946695</v>
       </c>
       <c r="E7">
-        <v>1.016402146675627</v>
+        <v>1.041821829527088</v>
       </c>
       <c r="F7">
-        <v>1.068612293597849</v>
+        <v>1.031618886503664</v>
       </c>
       <c r="G7">
-        <v>1.051272000219253</v>
+        <v>1.039614554122016</v>
       </c>
       <c r="H7">
-        <v>0.9895695433135087</v>
+        <v>1.099851321006688</v>
       </c>
       <c r="I7">
-        <v>0.9929550319286995</v>
+        <v>1.099851321006688</v>
       </c>
       <c r="J7">
-        <v>1.048307695879738</v>
+        <v>1.240254493033031</v>
       </c>
       <c r="K7">
-        <v>1.068612293597849</v>
+        <v>1.240254493033031</v>
       </c>
       <c r="L7">
-        <v>1.016402146675627</v>
+        <v>1.039614554122016</v>
       </c>
       <c r="M7">
-        <v>1.032354921277683</v>
+        <v>1.069732937564352</v>
       </c>
       <c r="N7">
-        <v>1.032354921277683</v>
+        <v>1.069732937564352</v>
       </c>
       <c r="O7">
-        <v>1.018093128622958</v>
+        <v>1.0560264046918</v>
       </c>
       <c r="P7">
-        <v>1.044440712051071</v>
+        <v>1.126573456053912</v>
       </c>
       <c r="Q7">
-        <v>1.044440712051071</v>
+        <v>1.126573456053912</v>
       </c>
       <c r="R7">
-        <v>1.050483607437766</v>
+        <v>1.154993715298692</v>
       </c>
       <c r="S7">
-        <v>1.050483607437766</v>
+        <v>1.154993715298692</v>
       </c>
       <c r="T7">
-        <v>1.027853118602446</v>
+        <v>1.080295737189864</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -924,58 +954,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.120079853657215</v>
+        <v>1.137781263764229</v>
       </c>
       <c r="D8">
-        <v>1.079326715570105</v>
+        <v>0.9884318269651895</v>
       </c>
       <c r="E8">
-        <v>1.019986702077028</v>
+        <v>1.02698613553563</v>
       </c>
       <c r="F8">
-        <v>1.120079853657215</v>
+        <v>1.004898742426084</v>
       </c>
       <c r="G8">
-        <v>1.077861162212369</v>
+        <v>1.011296751049787</v>
       </c>
       <c r="H8">
-        <v>0.996132989517804</v>
+        <v>1.08997083278909</v>
       </c>
       <c r="I8">
-        <v>0.9904155765870131</v>
+        <v>1.08997083278909</v>
       </c>
       <c r="J8">
-        <v>1.079326715570105</v>
+        <v>1.137781263764229</v>
       </c>
       <c r="K8">
-        <v>1.120079853657215</v>
+        <v>1.137781263764229</v>
       </c>
       <c r="L8">
-        <v>1.019986702077028</v>
+        <v>1.011296751049787</v>
       </c>
       <c r="M8">
-        <v>1.049656708823567</v>
+        <v>1.050633791919439</v>
       </c>
       <c r="N8">
-        <v>1.049656708823567</v>
+        <v>1.050633791919439</v>
       </c>
       <c r="O8">
-        <v>1.031815469054979</v>
+        <v>1.029899803601356</v>
       </c>
       <c r="P8">
-        <v>1.073131090434783</v>
+        <v>1.079682949201035</v>
       </c>
       <c r="Q8">
-        <v>1.073131090434783</v>
+        <v>1.079682949201035</v>
       </c>
       <c r="R8">
-        <v>1.084868281240391</v>
+        <v>1.094207527841834</v>
       </c>
       <c r="S8">
-        <v>1.084868281240391</v>
+        <v>1.094207527841834</v>
       </c>
       <c r="T8">
-        <v>1.047300499936922</v>
+        <v>1.043227592088335</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -986,58 +1016,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.356808716248784</v>
+        <v>1.604907144245246</v>
       </c>
       <c r="D9">
-        <v>1.081777908150743</v>
+        <v>1.078123803187341</v>
       </c>
       <c r="E9">
-        <v>1.053136621842351</v>
+        <v>1.208034769188831</v>
       </c>
       <c r="F9">
-        <v>1.356808716248784</v>
+        <v>1.092598002071044</v>
       </c>
       <c r="G9">
-        <v>1.06209262274902</v>
+        <v>1.117738869766187</v>
       </c>
       <c r="H9">
-        <v>0.9775566515409007</v>
+        <v>1.405099968017963</v>
       </c>
       <c r="I9">
-        <v>0.9670447000266862</v>
+        <v>1.405099968017963</v>
       </c>
       <c r="J9">
-        <v>1.081777908150743</v>
+        <v>1.604907144245246</v>
       </c>
       <c r="K9">
-        <v>1.356808716248784</v>
+        <v>1.604907144245246</v>
       </c>
       <c r="L9">
-        <v>1.053136621842351</v>
+        <v>1.117738869766187</v>
       </c>
       <c r="M9">
-        <v>1.067457264996547</v>
+        <v>1.261419418892075</v>
       </c>
       <c r="N9">
-        <v>1.067457264996547</v>
+        <v>1.261419418892075</v>
       </c>
       <c r="O9">
-        <v>1.037490393844665</v>
+        <v>1.200320880323831</v>
       </c>
       <c r="P9">
-        <v>1.163907748747293</v>
+        <v>1.375915327343132</v>
       </c>
       <c r="Q9">
-        <v>1.163907748747293</v>
+        <v>1.375915327343132</v>
       </c>
       <c r="R9">
-        <v>1.212132990622666</v>
+        <v>1.433163281568661</v>
       </c>
       <c r="S9">
-        <v>1.212132990622666</v>
+        <v>1.433163281568661</v>
       </c>
       <c r="T9">
-        <v>1.083069536759747</v>
+        <v>1.251083759412769</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1048,58 +1078,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.629303113505302</v>
+        <v>0.4187110513297211</v>
       </c>
       <c r="D10">
-        <v>1.152479375929933</v>
+        <v>0.4592489584120765</v>
       </c>
       <c r="E10">
-        <v>1.112454650553862</v>
+        <v>16.28101926958897</v>
       </c>
       <c r="F10">
-        <v>1.629303113505302</v>
+        <v>0.4568601573824591</v>
       </c>
       <c r="G10">
-        <v>1.216667553042505</v>
+        <v>5.71690797808961</v>
       </c>
       <c r="H10">
-        <v>0.945535192699863</v>
+        <v>21.51699784690905</v>
       </c>
       <c r="I10">
-        <v>1.066899928545225</v>
+        <v>21.51699784690905</v>
       </c>
       <c r="J10">
-        <v>1.152479375929933</v>
+        <v>0.4187110513297211</v>
       </c>
       <c r="K10">
-        <v>1.629303113505302</v>
+        <v>0.4187110513297211</v>
       </c>
       <c r="L10">
-        <v>1.112454650553862</v>
+        <v>5.71690797808961</v>
       </c>
       <c r="M10">
-        <v>1.132467013241897</v>
+        <v>13.61695291249933</v>
       </c>
       <c r="N10">
-        <v>1.132467013241897</v>
+        <v>13.61695291249933</v>
       </c>
       <c r="O10">
-        <v>1.070156406394553</v>
+        <v>9.231051594470244</v>
       </c>
       <c r="P10">
-        <v>1.298079046663032</v>
+        <v>9.217538958776126</v>
       </c>
       <c r="Q10">
-        <v>1.298079046663032</v>
+        <v>9.217538958776126</v>
       </c>
       <c r="R10">
-        <v>1.3808850633736</v>
+        <v>7.017831981914526</v>
       </c>
       <c r="S10">
-        <v>1.3808850633736</v>
+        <v>7.017831981914526</v>
       </c>
       <c r="T10">
-        <v>1.187223302379448</v>
+        <v>7.474957543618647</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1110,58 +1140,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>2.361611064393339</v>
+        <v>1.228545138538301</v>
       </c>
       <c r="D11">
-        <v>1.346328388165785</v>
+        <v>0.8456359049885888</v>
       </c>
       <c r="E11">
-        <v>1.178134395220267</v>
+        <v>1.165396464890562</v>
       </c>
       <c r="F11">
-        <v>2.361611064393339</v>
+        <v>1.067715629300242</v>
       </c>
       <c r="G11">
-        <v>1.373991877182964</v>
+        <v>1.101232198893288</v>
       </c>
       <c r="H11">
-        <v>0.8943345638236022</v>
+        <v>0.8047724825677131</v>
       </c>
       <c r="I11">
-        <v>0.9182615591955541</v>
+        <v>0.8047724825677131</v>
       </c>
       <c r="J11">
-        <v>1.346328388165785</v>
+        <v>1.228545138538301</v>
       </c>
       <c r="K11">
-        <v>2.361611064393339</v>
+        <v>1.228545138538301</v>
       </c>
       <c r="L11">
-        <v>1.178134395220267</v>
+        <v>1.101232198893288</v>
       </c>
       <c r="M11">
-        <v>1.262231391693026</v>
+        <v>0.9530023407305006</v>
       </c>
       <c r="N11">
-        <v>1.262231391693026</v>
+        <v>0.9530023407305006</v>
       </c>
       <c r="O11">
-        <v>1.139599115736552</v>
+        <v>0.91721352881653</v>
       </c>
       <c r="P11">
-        <v>1.628691282593131</v>
+        <v>1.044849939999767</v>
       </c>
       <c r="Q11">
-        <v>1.628691282593131</v>
+        <v>1.044849939999767</v>
       </c>
       <c r="R11">
-        <v>1.811921228043183</v>
+        <v>1.090773739634401</v>
       </c>
       <c r="S11">
-        <v>1.811921228043183</v>
+        <v>1.090773739634401</v>
       </c>
       <c r="T11">
-        <v>1.345443641330252</v>
+        <v>1.035549636529782</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1172,58 +1202,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.705554643115539</v>
+        <v>0.8036410960048004</v>
       </c>
       <c r="D12">
-        <v>0.00248523527940489</v>
+        <v>0.8632109905093264</v>
       </c>
       <c r="E12">
-        <v>1.042010413470588</v>
+        <v>3.390052849534958</v>
       </c>
       <c r="F12">
-        <v>1.705554643115539</v>
+        <v>0.8822485133660853</v>
       </c>
       <c r="G12">
-        <v>0.0009603180863463677</v>
+        <v>1.736919171544056</v>
       </c>
       <c r="H12">
-        <v>1.605104799295761</v>
+        <v>4.088990111118765</v>
       </c>
       <c r="I12">
-        <v>1.445895773005581</v>
+        <v>4.088990111118765</v>
       </c>
       <c r="J12">
-        <v>0.00248523527940489</v>
+        <v>0.8036410960048004</v>
       </c>
       <c r="K12">
-        <v>1.705554643115539</v>
+        <v>0.8036410960048004</v>
       </c>
       <c r="L12">
-        <v>1.042010413470588</v>
+        <v>1.736919171544056</v>
       </c>
       <c r="M12">
-        <v>0.5222478243749964</v>
+        <v>2.91295464133141</v>
       </c>
       <c r="N12">
-        <v>0.5222478243749964</v>
+        <v>2.91295464133141</v>
       </c>
       <c r="O12">
-        <v>0.8832001493485847</v>
+        <v>2.229706757724049</v>
       </c>
       <c r="P12">
-        <v>0.9166834306218439</v>
+        <v>2.20985012622254</v>
       </c>
       <c r="Q12">
-        <v>0.9166834306218439</v>
+        <v>2.209850126222541</v>
       </c>
       <c r="R12">
-        <v>1.113901233745268</v>
+        <v>1.858297868668106</v>
       </c>
       <c r="S12">
-        <v>1.113901233745268</v>
+        <v>1.858297868668106</v>
       </c>
       <c r="T12">
-        <v>0.9670018637088701</v>
+        <v>1.960843788679665</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1234,58 +1264,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.069219111067937</v>
+        <v>1.118558773732313</v>
       </c>
       <c r="D13">
-        <v>2.918949149647179</v>
+        <v>0.952247942292905</v>
       </c>
       <c r="E13">
-        <v>1.255596748899099</v>
+        <v>1.098815420715842</v>
       </c>
       <c r="F13">
-        <v>1.069219111067937</v>
+        <v>1.021816348659361</v>
       </c>
       <c r="G13">
-        <v>1.669950404516509</v>
+        <v>0.9497741311741823</v>
       </c>
       <c r="H13">
-        <v>0.724529892921338</v>
+        <v>1.118018717583724</v>
       </c>
       <c r="I13">
-        <v>0.9738373934482311</v>
+        <v>1.118018717583724</v>
       </c>
       <c r="J13">
-        <v>2.918949149647179</v>
+        <v>1.118558773732313</v>
       </c>
       <c r="K13">
-        <v>1.069219111067937</v>
+        <v>1.118558773732313</v>
       </c>
       <c r="L13">
-        <v>1.255596748899099</v>
+        <v>0.9497741311741823</v>
       </c>
       <c r="M13">
-        <v>2.087272949273139</v>
+        <v>1.033896424378953</v>
       </c>
       <c r="N13">
-        <v>2.087272949273139</v>
+        <v>1.033896424378953</v>
       </c>
       <c r="O13">
-        <v>1.633025263822539</v>
+        <v>1.006680263683604</v>
       </c>
       <c r="P13">
-        <v>1.747921669871405</v>
+        <v>1.06211720749674</v>
       </c>
       <c r="Q13">
-        <v>1.747921669871405</v>
+        <v>1.06211720749674</v>
       </c>
       <c r="R13">
-        <v>1.578246030170538</v>
+        <v>1.076227599055633</v>
       </c>
       <c r="S13">
-        <v>1.578246030170538</v>
+        <v>1.076227599055633</v>
       </c>
       <c r="T13">
-        <v>1.435347116750049</v>
+        <v>1.043205222359721</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1296,58 +1326,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.4331838084551375</v>
+        <v>-0.003592677800000001</v>
       </c>
       <c r="D14">
-        <v>1.686541510159178</v>
+        <v>0.006681075699999994</v>
       </c>
       <c r="E14">
-        <v>0.5510846346794228</v>
+        <v>30.27709800000001</v>
       </c>
       <c r="F14">
-        <v>0.4331838084551375</v>
+        <v>0.005051382499999996</v>
       </c>
       <c r="G14">
-        <v>0.6126721767637147</v>
+        <v>10.09155199999999</v>
       </c>
       <c r="H14">
-        <v>1.688266149648429</v>
+        <v>40.37854000000003</v>
       </c>
       <c r="I14">
-        <v>1.228362198520639</v>
+        <v>40.37854000000003</v>
       </c>
       <c r="J14">
-        <v>1.686541510159178</v>
+        <v>-0.003592677800000001</v>
       </c>
       <c r="K14">
-        <v>0.4331838084551375</v>
+        <v>-0.003592677800000001</v>
       </c>
       <c r="L14">
-        <v>0.5510846346794228</v>
+        <v>10.09155199999999</v>
       </c>
       <c r="M14">
-        <v>1.118813072419301</v>
+        <v>25.23504600000001</v>
       </c>
       <c r="N14">
-        <v>1.118813072419301</v>
+        <v>25.23504600000001</v>
       </c>
       <c r="O14">
-        <v>1.30863076482901</v>
+        <v>16.82559102523334</v>
       </c>
       <c r="P14">
-        <v>0.8902699844312463</v>
+        <v>16.82216644073334</v>
       </c>
       <c r="Q14">
-        <v>0.8902699844312462</v>
+        <v>16.82216644073334</v>
       </c>
       <c r="R14">
-        <v>0.775998440437219</v>
+        <v>12.6157266611</v>
       </c>
       <c r="S14">
-        <v>0.775998440437219</v>
+        <v>12.6157266611</v>
       </c>
       <c r="T14">
-        <v>1.033351746371087</v>
+        <v>13.45922163006667</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1358,58 +1388,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.3878749146360928</v>
+        <v>121.14151</v>
       </c>
       <c r="D15">
-        <v>0.05381285810825413</v>
+        <v>-0.0017802751</v>
       </c>
       <c r="E15">
-        <v>0.7411530584963388</v>
+        <v>0.010282672</v>
       </c>
       <c r="F15">
-        <v>0.3878749146360928</v>
+        <v>-0.0067091534</v>
       </c>
       <c r="G15">
-        <v>0.3973658516338667</v>
+        <v>-0.012240956</v>
       </c>
       <c r="H15">
-        <v>1.471135685741275</v>
+        <v>0.0007090084400000001</v>
       </c>
       <c r="I15">
-        <v>0.970124542052011</v>
+        <v>0.0007090084400000001</v>
       </c>
       <c r="J15">
-        <v>0.05381285810825413</v>
+        <v>121.14151</v>
       </c>
       <c r="K15">
-        <v>0.3878749146360928</v>
+        <v>121.14151</v>
       </c>
       <c r="L15">
-        <v>0.7411530584963388</v>
+        <v>-0.012240956</v>
       </c>
       <c r="M15">
-        <v>0.3974829583022965</v>
+        <v>-0.00576597378</v>
       </c>
       <c r="N15">
-        <v>0.3974829583022965</v>
+        <v>-0.00576597378</v>
       </c>
       <c r="O15">
-        <v>0.7553672007819561</v>
+        <v>-0.004437407553333334</v>
       </c>
       <c r="P15">
-        <v>0.3942802770802286</v>
+        <v>40.37665935081333</v>
       </c>
       <c r="Q15">
-        <v>0.3942802770802286</v>
+        <v>40.37665935081333</v>
       </c>
       <c r="R15">
-        <v>0.3926789364691946</v>
+        <v>60.56787201311</v>
       </c>
       <c r="S15">
-        <v>0.3926789364691946</v>
+        <v>60.56787201311</v>
       </c>
       <c r="T15">
-        <v>0.6702444851113065</v>
+        <v>20.18862854932333</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1420,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.024608641764952</v>
+        <v>20.194365</v>
       </c>
       <c r="D16">
-        <v>1.036106362533282</v>
+        <v>-0.0019288707</v>
       </c>
       <c r="E16">
-        <v>1.02243389953718</v>
+        <v>30.303508</v>
       </c>
       <c r="F16">
-        <v>1.024608641764952</v>
+        <v>-0.003354252199999999</v>
       </c>
       <c r="G16">
-        <v>1.05958645892131</v>
+        <v>10.089288</v>
       </c>
       <c r="H16">
-        <v>0.9927595455151673</v>
+        <v>0.0041544129</v>
       </c>
       <c r="I16">
-        <v>0.9927622079288044</v>
+        <v>0.0041544129</v>
       </c>
       <c r="J16">
-        <v>1.036106362533282</v>
+        <v>20.194365</v>
       </c>
       <c r="K16">
-        <v>1.024608641764952</v>
+        <v>20.194365</v>
       </c>
       <c r="L16">
-        <v>1.02243389953718</v>
+        <v>10.089288</v>
       </c>
       <c r="M16">
-        <v>1.029270131035231</v>
+        <v>5.04672120645</v>
       </c>
       <c r="N16">
-        <v>1.029270131035231</v>
+        <v>5.04672120645</v>
       </c>
       <c r="O16">
-        <v>1.017099935861877</v>
+        <v>3.3638378474</v>
       </c>
       <c r="P16">
-        <v>1.027716301278471</v>
+        <v>10.0959358043</v>
       </c>
       <c r="Q16">
-        <v>1.027716301278471</v>
+        <v>10.0959358043</v>
       </c>
       <c r="R16">
-        <v>1.026939386400092</v>
+        <v>12.620543103225</v>
       </c>
       <c r="S16">
-        <v>1.026939386400092</v>
+        <v>12.620543103225</v>
       </c>
       <c r="T16">
-        <v>1.021376186033449</v>
+        <v>10.09767204833333</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1482,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.137781263764226</v>
+        <v>1.2851635</v>
       </c>
       <c r="D17">
-        <v>1.08997083278909</v>
+        <v>0.0018918111</v>
       </c>
       <c r="E17">
-        <v>1.011296751049787</v>
+        <v>1.4083754</v>
       </c>
       <c r="F17">
-        <v>1.137781263764226</v>
+        <v>-0.0068264178</v>
       </c>
       <c r="G17">
-        <v>1.026986135535629</v>
+        <v>4.9112037</v>
       </c>
       <c r="H17">
-        <v>0.9884318269651904</v>
+        <v>0.94279376</v>
       </c>
       <c r="I17">
-        <v>1.004898742426084</v>
+        <v>0.94279376</v>
       </c>
       <c r="J17">
-        <v>1.08997083278909</v>
+        <v>1.2851635</v>
       </c>
       <c r="K17">
-        <v>1.137781263764226</v>
+        <v>1.2851635</v>
       </c>
       <c r="L17">
-        <v>1.011296751049787</v>
+        <v>4.9112037</v>
       </c>
       <c r="M17">
-        <v>1.050633791919439</v>
+        <v>2.92699873</v>
       </c>
       <c r="N17">
-        <v>1.050633791919439</v>
+        <v>2.92699873</v>
       </c>
       <c r="O17">
-        <v>1.029899803601356</v>
+        <v>1.951963090366666</v>
       </c>
       <c r="P17">
-        <v>1.079682949201034</v>
+        <v>2.37972032</v>
       </c>
       <c r="Q17">
-        <v>1.079682949201034</v>
+        <v>2.37972032</v>
       </c>
       <c r="R17">
-        <v>1.094207527841832</v>
+        <v>2.106081115</v>
       </c>
       <c r="S17">
-        <v>1.094207527841832</v>
+        <v>2.106081115</v>
       </c>
       <c r="T17">
-        <v>1.043227592088335</v>
+        <v>1.423766958883333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1544,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>2.169279399762381</v>
+        <v>7.263329451383068</v>
       </c>
       <c r="D18">
-        <v>1.436642021320401</v>
+        <v>1.718655274946576</v>
       </c>
       <c r="E18">
-        <v>0.9920568935057723</v>
+        <v>0.9382174675479452</v>
       </c>
       <c r="F18">
-        <v>2.169279399762381</v>
+        <v>1.555829678690247</v>
       </c>
       <c r="G18">
-        <v>1.137487446839503</v>
+        <v>1.522394856945206</v>
       </c>
       <c r="H18">
-        <v>0.857806708673618</v>
+        <v>2.492675206161095</v>
       </c>
       <c r="I18">
-        <v>1.091825415556993</v>
+        <v>2.492675206161095</v>
       </c>
       <c r="J18">
-        <v>1.436642021320401</v>
+        <v>7.263329451383068</v>
       </c>
       <c r="K18">
-        <v>2.169279399762381</v>
+        <v>7.263329451383068</v>
       </c>
       <c r="L18">
-        <v>0.9920568935057723</v>
+        <v>1.522394856945206</v>
       </c>
       <c r="M18">
-        <v>1.214349457413086</v>
+        <v>2.00753503155315</v>
       </c>
       <c r="N18">
-        <v>1.214349457413086</v>
+        <v>2.00753503155315</v>
       </c>
       <c r="O18">
-        <v>1.09550187449993</v>
+        <v>1.911241779350959</v>
       </c>
       <c r="P18">
-        <v>1.532659438196185</v>
+        <v>3.75946650482979</v>
       </c>
       <c r="Q18">
-        <v>1.532659438196185</v>
+        <v>3.75946650482979</v>
       </c>
       <c r="R18">
-        <v>1.691814428587734</v>
+        <v>4.635432241468109</v>
       </c>
       <c r="S18">
-        <v>1.691814428587734</v>
+        <v>4.635432241468109</v>
       </c>
       <c r="T18">
-        <v>1.280849647609778</v>
+        <v>2.581850322612356</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1606,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.053908803073048</v>
+        <v>4.052230811670526</v>
       </c>
       <c r="D19">
-        <v>1.942140374997898</v>
+        <v>0.001653716411578947</v>
       </c>
       <c r="E19">
-        <v>1.069247385818606</v>
+        <v>12.13835804947369</v>
       </c>
       <c r="F19">
-        <v>1.053908803073048</v>
+        <v>-0.005626627673684209</v>
       </c>
       <c r="G19">
-        <v>1.526641711715784</v>
+        <v>4.045530941157893</v>
       </c>
       <c r="H19">
-        <v>0.7524143986029078</v>
+        <v>8.103328102157372</v>
       </c>
       <c r="I19">
-        <v>1.156963855410678</v>
+        <v>8.103328102157372</v>
       </c>
       <c r="J19">
-        <v>1.942140374997898</v>
+        <v>4.052230811670526</v>
       </c>
       <c r="K19">
-        <v>1.053908803073048</v>
+        <v>4.052230811670526</v>
       </c>
       <c r="L19">
-        <v>1.069247385818606</v>
+        <v>4.045530941157893</v>
       </c>
       <c r="M19">
-        <v>1.505693880408252</v>
+        <v>6.074429521657633</v>
       </c>
       <c r="N19">
-        <v>1.505693880408252</v>
+        <v>6.074429521657633</v>
       </c>
       <c r="O19">
-        <v>1.254600719806471</v>
+        <v>4.050170919908948</v>
       </c>
       <c r="P19">
-        <v>1.355098854629851</v>
+        <v>5.400363284995264</v>
       </c>
       <c r="Q19">
-        <v>1.355098854629851</v>
+        <v>5.400363284995264</v>
       </c>
       <c r="R19">
-        <v>1.27980134174065</v>
+        <v>5.06333016666408</v>
       </c>
       <c r="S19">
-        <v>1.27980134174065</v>
+        <v>5.06333016666408</v>
       </c>
       <c r="T19">
-        <v>1.250219421603154</v>
+        <v>4.722579165532895</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>7.979312787437896</v>
+      </c>
+      <c r="D20">
+        <v>0.2759162879236842</v>
+      </c>
+      <c r="E20">
+        <v>3.484395027764211</v>
+      </c>
+      <c r="F20">
+        <v>1.566428756198421</v>
+      </c>
+      <c r="G20">
+        <v>1.896432722231052</v>
+      </c>
+      <c r="H20">
+        <v>2.259136785006686</v>
+      </c>
+      <c r="I20">
+        <v>2.259136785006686</v>
+      </c>
+      <c r="J20">
+        <v>7.979312787437896</v>
+      </c>
+      <c r="K20">
+        <v>7.979312787437896</v>
+      </c>
+      <c r="L20">
+        <v>1.896432722231052</v>
+      </c>
+      <c r="M20">
+        <v>2.077784753618869</v>
+      </c>
+      <c r="N20">
+        <v>2.077784753618869</v>
+      </c>
+      <c r="O20">
+        <v>1.477161931720474</v>
+      </c>
+      <c r="P20">
+        <v>4.044960764891878</v>
+      </c>
+      <c r="Q20">
+        <v>4.044960764891878</v>
+      </c>
+      <c r="R20">
+        <v>5.028548770528382</v>
+      </c>
+      <c r="S20">
+        <v>5.028548770528382</v>
+      </c>
+      <c r="T20">
+        <v>2.910270394426992</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.4331838084551377</v>
+      </c>
+      <c r="D21">
+        <v>1.688266149648427</v>
+      </c>
+      <c r="E21">
+        <v>0.6126721767637138</v>
+      </c>
+      <c r="F21">
+        <v>1.228362198520639</v>
+      </c>
+      <c r="G21">
+        <v>0.551084634679422</v>
+      </c>
+      <c r="H21">
+        <v>1.68654151015918</v>
+      </c>
+      <c r="I21">
+        <v>1.68654151015918</v>
+      </c>
+      <c r="J21">
+        <v>0.4331838084551377</v>
+      </c>
+      <c r="K21">
+        <v>0.4331838084551377</v>
+      </c>
+      <c r="L21">
+        <v>0.551084634679422</v>
+      </c>
+      <c r="M21">
+        <v>1.118813072419301</v>
+      </c>
+      <c r="N21">
+        <v>1.118813072419301</v>
+      </c>
+      <c r="O21">
+        <v>1.30863076482901</v>
+      </c>
+      <c r="P21">
+        <v>0.8902699844312464</v>
+      </c>
+      <c r="Q21">
+        <v>0.8902699844312464</v>
+      </c>
+      <c r="R21">
+        <v>0.7759984404372192</v>
+      </c>
+      <c r="S21">
+        <v>0.7759984404372192</v>
+      </c>
+      <c r="T21">
+        <v>1.033351746371087</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.3878749146360924</v>
+      </c>
+      <c r="D22">
+        <v>1.471135685741275</v>
+      </c>
+      <c r="E22">
+        <v>0.3973658516338666</v>
+      </c>
+      <c r="F22">
+        <v>0.970124542052011</v>
+      </c>
+      <c r="G22">
+        <v>0.7411530584963391</v>
+      </c>
+      <c r="H22">
+        <v>0.05381285810825413</v>
+      </c>
+      <c r="I22">
+        <v>0.05381285810825413</v>
+      </c>
+      <c r="J22">
+        <v>0.3878749146360924</v>
+      </c>
+      <c r="K22">
+        <v>0.3878749146360924</v>
+      </c>
+      <c r="L22">
+        <v>0.7411530584963391</v>
+      </c>
+      <c r="M22">
+        <v>0.3974829583022966</v>
+      </c>
+      <c r="N22">
+        <v>0.3974829583022966</v>
+      </c>
+      <c r="O22">
+        <v>0.7553672007819562</v>
+      </c>
+      <c r="P22">
+        <v>0.3942802770802285</v>
+      </c>
+      <c r="Q22">
+        <v>0.3942802770802285</v>
+      </c>
+      <c r="R22">
+        <v>0.3926789364691945</v>
+      </c>
+      <c r="S22">
+        <v>0.3926789364691945</v>
+      </c>
+      <c r="T22">
+        <v>0.6702444851113064</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.705554643115539</v>
+      </c>
+      <c r="D23">
+        <v>1.60510479929576</v>
+      </c>
+      <c r="E23">
+        <v>0.0009603180863463678</v>
+      </c>
+      <c r="F23">
+        <v>1.44589577300558</v>
+      </c>
+      <c r="G23">
+        <v>1.042010413470588</v>
+      </c>
+      <c r="H23">
+        <v>0.002485235279404896</v>
+      </c>
+      <c r="I23">
+        <v>0.002485235279404896</v>
+      </c>
+      <c r="J23">
+        <v>1.705554643115539</v>
+      </c>
+      <c r="K23">
+        <v>1.705554643115539</v>
+      </c>
+      <c r="L23">
+        <v>1.042010413470588</v>
+      </c>
+      <c r="M23">
+        <v>0.5222478243749965</v>
+      </c>
+      <c r="N23">
+        <v>0.5222478243749965</v>
+      </c>
+      <c r="O23">
+        <v>0.8832001493485843</v>
+      </c>
+      <c r="P23">
+        <v>0.9166834306218439</v>
+      </c>
+      <c r="Q23">
+        <v>0.9166834306218439</v>
+      </c>
+      <c r="R23">
+        <v>1.113901233745268</v>
+      </c>
+      <c r="S23">
+        <v>1.113901233745268</v>
+      </c>
+      <c r="T23">
+        <v>0.9670018637088696</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.069219111067938</v>
+      </c>
+      <c r="D24">
+        <v>0.7245298929213373</v>
+      </c>
+      <c r="E24">
+        <v>1.669950404516509</v>
+      </c>
+      <c r="F24">
+        <v>0.9738373934482308</v>
+      </c>
+      <c r="G24">
+        <v>1.255596748899099</v>
+      </c>
+      <c r="H24">
+        <v>2.918949149647179</v>
+      </c>
+      <c r="I24">
+        <v>2.918949149647179</v>
+      </c>
+      <c r="J24">
+        <v>1.069219111067938</v>
+      </c>
+      <c r="K24">
+        <v>1.069219111067938</v>
+      </c>
+      <c r="L24">
+        <v>1.255596748899099</v>
+      </c>
+      <c r="M24">
+        <v>2.087272949273139</v>
+      </c>
+      <c r="N24">
+        <v>2.087272949273139</v>
+      </c>
+      <c r="O24">
+        <v>1.633025263822539</v>
+      </c>
+      <c r="P24">
+        <v>1.747921669871406</v>
+      </c>
+      <c r="Q24">
+        <v>1.747921669871406</v>
+      </c>
+      <c r="R24">
+        <v>1.578246030170539</v>
+      </c>
+      <c r="S24">
+        <v>1.578246030170539</v>
+      </c>
+      <c r="T24">
+        <v>1.435347116750049</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.794983312429255</v>
+      </c>
+      <c r="D25">
+        <v>0.5264296063171332</v>
+      </c>
+      <c r="E25">
+        <v>0.07054503366969642</v>
+      </c>
+      <c r="F25">
+        <v>1.401172564976549</v>
+      </c>
+      <c r="G25">
+        <v>0.5390105871807543</v>
+      </c>
+      <c r="H25">
+        <v>0.001806637258293289</v>
+      </c>
+      <c r="I25">
+        <v>0.001806637258293289</v>
+      </c>
+      <c r="J25">
+        <v>1.794983312429255</v>
+      </c>
+      <c r="K25">
+        <v>1.794983312429255</v>
+      </c>
+      <c r="L25">
+        <v>0.5390105871807543</v>
+      </c>
+      <c r="M25">
+        <v>0.2704086122195238</v>
+      </c>
+      <c r="N25">
+        <v>0.2704086122195238</v>
+      </c>
+      <c r="O25">
+        <v>0.3557489435853936</v>
+      </c>
+      <c r="P25">
+        <v>0.7786001789561009</v>
+      </c>
+      <c r="Q25">
+        <v>0.7786001789561007</v>
+      </c>
+      <c r="R25">
+        <v>1.032695962324389</v>
+      </c>
+      <c r="S25">
+        <v>1.032695962324389</v>
+      </c>
+      <c r="T25">
+        <v>0.7223246236386135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.2863276994801713</v>
+      </c>
+      <c r="D26">
+        <v>1.334802064628523</v>
+      </c>
+      <c r="E26">
+        <v>1.120897010725991</v>
+      </c>
+      <c r="F26">
+        <v>1.047774481154559</v>
+      </c>
+      <c r="G26">
+        <v>1.866557827536633</v>
+      </c>
+      <c r="H26">
+        <v>0.6115437164993525</v>
+      </c>
+      <c r="I26">
+        <v>0.6115437164993525</v>
+      </c>
+      <c r="J26">
+        <v>0.2863276994801713</v>
+      </c>
+      <c r="K26">
+        <v>0.2863276994801713</v>
+      </c>
+      <c r="L26">
+        <v>1.866557827536633</v>
+      </c>
+      <c r="M26">
+        <v>1.239050772017992</v>
+      </c>
+      <c r="N26">
+        <v>1.239050772017992</v>
+      </c>
+      <c r="O26">
+        <v>1.270967869554836</v>
+      </c>
+      <c r="P26">
+        <v>0.9214764145053854</v>
+      </c>
+      <c r="Q26">
+        <v>0.9214764145053854</v>
+      </c>
+      <c r="R26">
+        <v>0.762689235749082</v>
+      </c>
+      <c r="S26">
+        <v>0.762689235749082</v>
+      </c>
+      <c r="T26">
+        <v>1.044650466670871</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>2.566107441077575</v>
+      </c>
+      <c r="D27">
+        <v>2.637982112588745</v>
+      </c>
+      <c r="E27">
+        <v>6.745019429020989</v>
+      </c>
+      <c r="F27">
+        <v>1.232173886747925</v>
+      </c>
+      <c r="G27">
+        <v>1.703246889088722</v>
+      </c>
+      <c r="H27">
+        <v>4.031153167192008</v>
+      </c>
+      <c r="I27">
+        <v>4.031153167192008</v>
+      </c>
+      <c r="J27">
+        <v>2.566107441077575</v>
+      </c>
+      <c r="K27">
+        <v>2.566107441077575</v>
+      </c>
+      <c r="L27">
+        <v>1.703246889088722</v>
+      </c>
+      <c r="M27">
+        <v>2.867200028140365</v>
+      </c>
+      <c r="N27">
+        <v>2.867200028140365</v>
+      </c>
+      <c r="O27">
+        <v>2.790794056289825</v>
+      </c>
+      <c r="P27">
+        <v>2.766835832452768</v>
+      </c>
+      <c r="Q27">
+        <v>2.766835832452768</v>
+      </c>
+      <c r="R27">
+        <v>2.71665373460897</v>
+      </c>
+      <c r="S27">
+        <v>2.71665373460897</v>
+      </c>
+      <c r="T27">
+        <v>3.152613820952661</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>3.311595942327824</v>
+      </c>
+      <c r="D28">
+        <v>0.9593792415122903</v>
+      </c>
+      <c r="E28">
+        <v>2.745522149341091</v>
+      </c>
+      <c r="F28">
+        <v>1.465823094931901</v>
+      </c>
+      <c r="G28">
+        <v>1.157603070290836</v>
+      </c>
+      <c r="H28">
+        <v>4.174194138986013</v>
+      </c>
+      <c r="I28">
+        <v>4.174194138986013</v>
+      </c>
+      <c r="J28">
+        <v>3.311595942327824</v>
+      </c>
+      <c r="K28">
+        <v>3.311595942327824</v>
+      </c>
+      <c r="L28">
+        <v>1.157603070290836</v>
+      </c>
+      <c r="M28">
+        <v>2.665898604638425</v>
+      </c>
+      <c r="N28">
+        <v>2.665898604638425</v>
+      </c>
+      <c r="O28">
+        <v>2.097058816929713</v>
+      </c>
+      <c r="P28">
+        <v>2.881131050534891</v>
+      </c>
+      <c r="Q28">
+        <v>2.881131050534891</v>
+      </c>
+      <c r="R28">
+        <v>2.988747273483124</v>
+      </c>
+      <c r="S28">
+        <v>2.988747273483124</v>
+      </c>
+      <c r="T28">
+        <v>2.302352939564992</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>6.911418378338329</v>
+      </c>
+      <c r="D29">
+        <v>1.273394447950587</v>
+      </c>
+      <c r="E29">
+        <v>6.040787931321557</v>
+      </c>
+      <c r="F29">
+        <v>0.3290680290204437</v>
+      </c>
+      <c r="G29">
+        <v>1.117608088513095</v>
+      </c>
+      <c r="H29">
+        <v>8.063979327355129</v>
+      </c>
+      <c r="I29">
+        <v>8.063979327355129</v>
+      </c>
+      <c r="J29">
+        <v>6.911418378338329</v>
+      </c>
+      <c r="K29">
+        <v>6.911418378338329</v>
+      </c>
+      <c r="L29">
+        <v>1.117608088513095</v>
+      </c>
+      <c r="M29">
+        <v>4.590793707934112</v>
+      </c>
+      <c r="N29">
+        <v>4.590793707934112</v>
+      </c>
+      <c r="O29">
+        <v>3.48499395460627</v>
+      </c>
+      <c r="P29">
+        <v>5.364335264735518</v>
+      </c>
+      <c r="Q29">
+        <v>5.364335264735518</v>
+      </c>
+      <c r="R29">
+        <v>5.751106043136221</v>
+      </c>
+      <c r="S29">
+        <v>5.751106043136221</v>
+      </c>
+      <c r="T29">
+        <v>3.956042700416524</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/AlphaFiberF-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/AlphaFiberF-HW03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.199068779750939</v>
+        <v>0.8230609169199407</v>
       </c>
       <c r="D4">
-        <v>0.8032113772738989</v>
+        <v>0.9469505479934185</v>
       </c>
       <c r="E4">
-        <v>1.714103526287078</v>
+        <v>1.927691841862396</v>
       </c>
       <c r="F4">
-        <v>0.9801024240181715</v>
+        <v>0.9337896172281688</v>
       </c>
       <c r="G4">
-        <v>1.114660730763665</v>
+        <v>1.289668957223146</v>
       </c>
       <c r="H4">
-        <v>0.904415196490881</v>
+        <v>2.225531357924238</v>
       </c>
       <c r="I4">
-        <v>0.904415196490881</v>
+        <v>2.225531357924238</v>
       </c>
       <c r="J4">
-        <v>1.199068779750939</v>
+        <v>0.8230609169199407</v>
       </c>
       <c r="K4">
-        <v>1.199068779750939</v>
+        <v>0.8230609169199407</v>
       </c>
       <c r="L4">
-        <v>1.114660730763665</v>
+        <v>1.289668957223146</v>
       </c>
       <c r="M4">
-        <v>1.009537963627273</v>
+        <v>1.757600157573692</v>
       </c>
       <c r="N4">
-        <v>1.009537963627273</v>
+        <v>1.757600157573692</v>
       </c>
       <c r="O4">
-        <v>0.9407624348428151</v>
+        <v>1.487383621046934</v>
       </c>
       <c r="P4">
-        <v>1.072714902335162</v>
+        <v>1.446087077355775</v>
       </c>
       <c r="Q4">
-        <v>1.072714902335162</v>
+        <v>1.446087077355775</v>
       </c>
       <c r="R4">
-        <v>1.104303371689106</v>
+        <v>1.290330537246816</v>
       </c>
       <c r="S4">
-        <v>1.104303371689106</v>
+        <v>1.290330537246816</v>
       </c>
       <c r="T4">
-        <v>1.119260339097439</v>
+        <v>1.357782206525218</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.097655098868639</v>
+        <v>5.818668321352504</v>
       </c>
       <c r="D5">
-        <v>0.9266058341850941</v>
+        <v>0.3019432256074346</v>
       </c>
       <c r="E5">
-        <v>2.612722075937493</v>
+        <v>2.154500460863252</v>
       </c>
       <c r="F5">
-        <v>0.9299062723889632</v>
+        <v>1.724601467711075</v>
       </c>
       <c r="G5">
-        <v>1.512226357570853</v>
+        <v>1.530852014550058</v>
       </c>
       <c r="H5">
-        <v>3.155020307254655</v>
+        <v>0.2319101419496165</v>
       </c>
       <c r="I5">
-        <v>3.155020307254655</v>
+        <v>0.2319101419496165</v>
       </c>
       <c r="J5">
-        <v>1.097655098868639</v>
+        <v>5.818668321352504</v>
       </c>
       <c r="K5">
-        <v>1.097655098868639</v>
+        <v>5.818668321352504</v>
       </c>
       <c r="L5">
-        <v>1.512226357570853</v>
+        <v>1.530852014550058</v>
       </c>
       <c r="M5">
-        <v>2.333623332412754</v>
+        <v>0.8813810782498371</v>
       </c>
       <c r="N5">
-        <v>2.333623332412754</v>
+        <v>0.8813810782498371</v>
       </c>
       <c r="O5">
-        <v>1.8646174996702</v>
+        <v>0.6882351273690364</v>
       </c>
       <c r="P5">
-        <v>1.921633921231382</v>
+        <v>2.527143492617393</v>
       </c>
       <c r="Q5">
-        <v>1.921633921231382</v>
+        <v>2.527143492617393</v>
       </c>
       <c r="R5">
-        <v>1.715639215640696</v>
+        <v>3.350024699801171</v>
       </c>
       <c r="S5">
-        <v>1.715639215640696</v>
+        <v>3.350024699801171</v>
       </c>
       <c r="T5">
-        <v>1.705689324367616</v>
+        <v>1.96041260533899</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.4428852883562573</v>
+        <v>1.199068779750939</v>
       </c>
       <c r="D6">
-        <v>0.4686054254572429</v>
+        <v>0.8032113772738989</v>
       </c>
       <c r="E6">
-        <v>16.06109719942996</v>
+        <v>1.714103526287078</v>
       </c>
       <c r="F6">
-        <v>0.4692314428937391</v>
+        <v>0.9801024240181715</v>
       </c>
       <c r="G6">
-        <v>5.682126891637458</v>
+        <v>1.114660730763665</v>
       </c>
       <c r="H6">
-        <v>21.24948437995802</v>
+        <v>0.904415196490881</v>
       </c>
       <c r="I6">
-        <v>21.24948437995802</v>
+        <v>0.904415196490881</v>
       </c>
       <c r="J6">
-        <v>0.4428852883562573</v>
+        <v>1.199068779750939</v>
       </c>
       <c r="K6">
-        <v>0.4428852883562573</v>
+        <v>1.199068779750939</v>
       </c>
       <c r="L6">
-        <v>5.682126891637458</v>
+        <v>1.114660730763665</v>
       </c>
       <c r="M6">
-        <v>13.46580563579774</v>
+        <v>1.009537963627273</v>
       </c>
       <c r="N6">
-        <v>13.46580563579774</v>
+        <v>1.009537963627273</v>
       </c>
       <c r="O6">
-        <v>9.133405565684241</v>
+        <v>0.9407624348428151</v>
       </c>
       <c r="P6">
-        <v>9.124832186650579</v>
+        <v>1.072714902335162</v>
       </c>
       <c r="Q6">
-        <v>9.124832186650579</v>
+        <v>1.072714902335162</v>
       </c>
       <c r="R6">
-        <v>6.954345462076999</v>
+        <v>1.104303371689106</v>
       </c>
       <c r="S6">
-        <v>6.954345462076999</v>
+        <v>1.104303371689106</v>
       </c>
       <c r="T6">
-        <v>7.39557177128878</v>
+        <v>1.119260339097439</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.240254493033031</v>
+        <v>1.097655098868639</v>
       </c>
       <c r="D7">
-        <v>1.028613338946695</v>
+        <v>0.9266058341850941</v>
       </c>
       <c r="E7">
-        <v>1.041821829527088</v>
+        <v>2.612722075937493</v>
       </c>
       <c r="F7">
-        <v>1.031618886503664</v>
+        <v>0.9299062723889632</v>
       </c>
       <c r="G7">
-        <v>1.039614554122016</v>
+        <v>1.512226357570853</v>
       </c>
       <c r="H7">
-        <v>1.099851321006688</v>
+        <v>3.155020307254655</v>
       </c>
       <c r="I7">
-        <v>1.099851321006688</v>
+        <v>3.155020307254655</v>
       </c>
       <c r="J7">
-        <v>1.240254493033031</v>
+        <v>1.097655098868639</v>
       </c>
       <c r="K7">
-        <v>1.240254493033031</v>
+        <v>1.097655098868639</v>
       </c>
       <c r="L7">
-        <v>1.039614554122016</v>
+        <v>1.512226357570853</v>
       </c>
       <c r="M7">
-        <v>1.069732937564352</v>
+        <v>2.333623332412754</v>
       </c>
       <c r="N7">
-        <v>1.069732937564352</v>
+        <v>2.333623332412754</v>
       </c>
       <c r="O7">
-        <v>1.0560264046918</v>
+        <v>1.8646174996702</v>
       </c>
       <c r="P7">
-        <v>1.126573456053912</v>
+        <v>1.921633921231382</v>
       </c>
       <c r="Q7">
-        <v>1.126573456053912</v>
+        <v>1.921633921231382</v>
       </c>
       <c r="R7">
-        <v>1.154993715298692</v>
+        <v>1.715639215640696</v>
       </c>
       <c r="S7">
-        <v>1.154993715298692</v>
+        <v>1.715639215640696</v>
       </c>
       <c r="T7">
-        <v>1.080295737189864</v>
+        <v>1.705689324367616</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.137781263764229</v>
+        <v>0.4428852883562573</v>
       </c>
       <c r="D8">
-        <v>0.9884318269651895</v>
+        <v>0.4686054254572429</v>
       </c>
       <c r="E8">
-        <v>1.02698613553563</v>
+        <v>16.06109719942996</v>
       </c>
       <c r="F8">
-        <v>1.004898742426084</v>
+        <v>0.4692314428937391</v>
       </c>
       <c r="G8">
-        <v>1.011296751049787</v>
+        <v>5.682126891637458</v>
       </c>
       <c r="H8">
-        <v>1.08997083278909</v>
+        <v>21.24948437995802</v>
       </c>
       <c r="I8">
-        <v>1.08997083278909</v>
+        <v>21.24948437995802</v>
       </c>
       <c r="J8">
-        <v>1.137781263764229</v>
+        <v>0.4428852883562573</v>
       </c>
       <c r="K8">
-        <v>1.137781263764229</v>
+        <v>0.4428852883562573</v>
       </c>
       <c r="L8">
-        <v>1.011296751049787</v>
+        <v>5.682126891637458</v>
       </c>
       <c r="M8">
-        <v>1.050633791919439</v>
+        <v>13.46580563579774</v>
       </c>
       <c r="N8">
-        <v>1.050633791919439</v>
+        <v>13.46580563579774</v>
       </c>
       <c r="O8">
-        <v>1.029899803601356</v>
+        <v>9.133405565684241</v>
       </c>
       <c r="P8">
-        <v>1.079682949201035</v>
+        <v>9.124832186650579</v>
       </c>
       <c r="Q8">
-        <v>1.079682949201035</v>
+        <v>9.124832186650579</v>
       </c>
       <c r="R8">
-        <v>1.094207527841834</v>
+        <v>6.954345462076999</v>
       </c>
       <c r="S8">
-        <v>1.094207527841834</v>
+        <v>6.954345462076999</v>
       </c>
       <c r="T8">
-        <v>1.043227592088335</v>
+        <v>7.39557177128878</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.604907144245246</v>
+        <v>1.240254493033031</v>
       </c>
       <c r="D9">
-        <v>1.078123803187341</v>
+        <v>1.028613338946695</v>
       </c>
       <c r="E9">
-        <v>1.208034769188831</v>
+        <v>1.041821829527088</v>
       </c>
       <c r="F9">
-        <v>1.092598002071044</v>
+        <v>1.031618886503664</v>
       </c>
       <c r="G9">
-        <v>1.117738869766187</v>
+        <v>1.039614554122016</v>
       </c>
       <c r="H9">
-        <v>1.405099968017963</v>
+        <v>1.099851321006688</v>
       </c>
       <c r="I9">
-        <v>1.405099968017963</v>
+        <v>1.099851321006688</v>
       </c>
       <c r="J9">
-        <v>1.604907144245246</v>
+        <v>1.240254493033031</v>
       </c>
       <c r="K9">
-        <v>1.604907144245246</v>
+        <v>1.240254493033031</v>
       </c>
       <c r="L9">
-        <v>1.117738869766187</v>
+        <v>1.039614554122016</v>
       </c>
       <c r="M9">
-        <v>1.261419418892075</v>
+        <v>1.069732937564352</v>
       </c>
       <c r="N9">
-        <v>1.261419418892075</v>
+        <v>1.069732937564352</v>
       </c>
       <c r="O9">
-        <v>1.200320880323831</v>
+        <v>1.0560264046918</v>
       </c>
       <c r="P9">
-        <v>1.375915327343132</v>
+        <v>1.126573456053912</v>
       </c>
       <c r="Q9">
-        <v>1.375915327343132</v>
+        <v>1.126573456053912</v>
       </c>
       <c r="R9">
-        <v>1.433163281568661</v>
+        <v>1.154993715298692</v>
       </c>
       <c r="S9">
-        <v>1.433163281568661</v>
+        <v>1.154993715298692</v>
       </c>
       <c r="T9">
-        <v>1.251083759412769</v>
+        <v>1.080295737189864</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.4187110513297211</v>
+        <v>1.137781263764229</v>
       </c>
       <c r="D10">
-        <v>0.4592489584120765</v>
+        <v>0.9884318269651895</v>
       </c>
       <c r="E10">
-        <v>16.28101926958897</v>
+        <v>1.02698613553563</v>
       </c>
       <c r="F10">
-        <v>0.4568601573824591</v>
+        <v>1.004898742426084</v>
       </c>
       <c r="G10">
-        <v>5.71690797808961</v>
+        <v>1.011296751049787</v>
       </c>
       <c r="H10">
-        <v>21.51699784690905</v>
+        <v>1.08997083278909</v>
       </c>
       <c r="I10">
-        <v>21.51699784690905</v>
+        <v>1.08997083278909</v>
       </c>
       <c r="J10">
-        <v>0.4187110513297211</v>
+        <v>1.137781263764229</v>
       </c>
       <c r="K10">
-        <v>0.4187110513297211</v>
+        <v>1.137781263764229</v>
       </c>
       <c r="L10">
-        <v>5.71690797808961</v>
+        <v>1.011296751049787</v>
       </c>
       <c r="M10">
-        <v>13.61695291249933</v>
+        <v>1.050633791919439</v>
       </c>
       <c r="N10">
-        <v>13.61695291249933</v>
+        <v>1.050633791919439</v>
       </c>
       <c r="O10">
-        <v>9.231051594470244</v>
+        <v>1.029899803601356</v>
       </c>
       <c r="P10">
-        <v>9.217538958776126</v>
+        <v>1.079682949201035</v>
       </c>
       <c r="Q10">
-        <v>9.217538958776126</v>
+        <v>1.079682949201035</v>
       </c>
       <c r="R10">
-        <v>7.017831981914526</v>
+        <v>1.094207527841834</v>
       </c>
       <c r="S10">
-        <v>7.017831981914526</v>
+        <v>1.094207527841834</v>
       </c>
       <c r="T10">
-        <v>7.474957543618647</v>
+        <v>1.043227592088335</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.228545138538301</v>
+        <v>1.604907144245246</v>
       </c>
       <c r="D11">
-        <v>0.8456359049885888</v>
+        <v>1.078123803187341</v>
       </c>
       <c r="E11">
-        <v>1.165396464890562</v>
+        <v>1.208034769188831</v>
       </c>
       <c r="F11">
-        <v>1.067715629300242</v>
+        <v>1.092598002071044</v>
       </c>
       <c r="G11">
-        <v>1.101232198893288</v>
+        <v>1.117738869766187</v>
       </c>
       <c r="H11">
-        <v>0.8047724825677131</v>
+        <v>1.405099968017963</v>
       </c>
       <c r="I11">
-        <v>0.8047724825677131</v>
+        <v>1.405099968017963</v>
       </c>
       <c r="J11">
-        <v>1.228545138538301</v>
+        <v>1.604907144245246</v>
       </c>
       <c r="K11">
-        <v>1.228545138538301</v>
+        <v>1.604907144245246</v>
       </c>
       <c r="L11">
-        <v>1.101232198893288</v>
+        <v>1.117738869766187</v>
       </c>
       <c r="M11">
-        <v>0.9530023407305006</v>
+        <v>1.261419418892075</v>
       </c>
       <c r="N11">
-        <v>0.9530023407305006</v>
+        <v>1.261419418892075</v>
       </c>
       <c r="O11">
-        <v>0.91721352881653</v>
+        <v>1.200320880323831</v>
       </c>
       <c r="P11">
-        <v>1.044849939999767</v>
+        <v>1.375915327343132</v>
       </c>
       <c r="Q11">
-        <v>1.044849939999767</v>
+        <v>1.375915327343132</v>
       </c>
       <c r="R11">
-        <v>1.090773739634401</v>
+        <v>1.433163281568661</v>
       </c>
       <c r="S11">
-        <v>1.090773739634401</v>
+        <v>1.433163281568661</v>
       </c>
       <c r="T11">
-        <v>1.035549636529782</v>
+        <v>1.251083759412769</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.8036410960048004</v>
+        <v>0.4187110513297211</v>
       </c>
       <c r="D12">
-        <v>0.8632109905093264</v>
+        <v>0.4592489584120765</v>
       </c>
       <c r="E12">
-        <v>3.390052849534958</v>
+        <v>16.28101926958897</v>
       </c>
       <c r="F12">
-        <v>0.8822485133660853</v>
+        <v>0.4568601573824591</v>
       </c>
       <c r="G12">
-        <v>1.736919171544056</v>
+        <v>5.71690797808961</v>
       </c>
       <c r="H12">
-        <v>4.088990111118765</v>
+        <v>21.51699784690905</v>
       </c>
       <c r="I12">
-        <v>4.088990111118765</v>
+        <v>21.51699784690905</v>
       </c>
       <c r="J12">
-        <v>0.8036410960048004</v>
+        <v>0.4187110513297211</v>
       </c>
       <c r="K12">
-        <v>0.8036410960048004</v>
+        <v>0.4187110513297211</v>
       </c>
       <c r="L12">
-        <v>1.736919171544056</v>
+        <v>5.71690797808961</v>
       </c>
       <c r="M12">
-        <v>2.91295464133141</v>
+        <v>13.61695291249933</v>
       </c>
       <c r="N12">
-        <v>2.91295464133141</v>
+        <v>13.61695291249933</v>
       </c>
       <c r="O12">
-        <v>2.229706757724049</v>
+        <v>9.231051594470244</v>
       </c>
       <c r="P12">
-        <v>2.20985012622254</v>
+        <v>9.217538958776126</v>
       </c>
       <c r="Q12">
-        <v>2.209850126222541</v>
+        <v>9.217538958776126</v>
       </c>
       <c r="R12">
-        <v>1.858297868668106</v>
+        <v>7.017831981914526</v>
       </c>
       <c r="S12">
-        <v>1.858297868668106</v>
+        <v>7.017831981914526</v>
       </c>
       <c r="T12">
-        <v>1.960843788679665</v>
+        <v>7.474957543618647</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.118558773732313</v>
+        <v>1.228545138538301</v>
       </c>
       <c r="D13">
-        <v>0.952247942292905</v>
+        <v>0.8456359049885888</v>
       </c>
       <c r="E13">
-        <v>1.098815420715842</v>
+        <v>1.165396464890562</v>
       </c>
       <c r="F13">
-        <v>1.021816348659361</v>
+        <v>1.067715629300242</v>
       </c>
       <c r="G13">
-        <v>0.9497741311741823</v>
+        <v>1.101232198893288</v>
       </c>
       <c r="H13">
-        <v>1.118018717583724</v>
+        <v>0.8047724825677131</v>
       </c>
       <c r="I13">
-        <v>1.118018717583724</v>
+        <v>0.8047724825677131</v>
       </c>
       <c r="J13">
-        <v>1.118558773732313</v>
+        <v>1.228545138538301</v>
       </c>
       <c r="K13">
-        <v>1.118558773732313</v>
+        <v>1.228545138538301</v>
       </c>
       <c r="L13">
-        <v>0.9497741311741823</v>
+        <v>1.101232198893288</v>
       </c>
       <c r="M13">
-        <v>1.033896424378953</v>
+        <v>0.9530023407305006</v>
       </c>
       <c r="N13">
-        <v>1.033896424378953</v>
+        <v>0.9530023407305006</v>
       </c>
       <c r="O13">
-        <v>1.006680263683604</v>
+        <v>0.91721352881653</v>
       </c>
       <c r="P13">
-        <v>1.06211720749674</v>
+        <v>1.044849939999767</v>
       </c>
       <c r="Q13">
-        <v>1.06211720749674</v>
+        <v>1.044849939999767</v>
       </c>
       <c r="R13">
-        <v>1.076227599055633</v>
+        <v>1.090773739634401</v>
       </c>
       <c r="S13">
-        <v>1.076227599055633</v>
+        <v>1.090773739634401</v>
       </c>
       <c r="T13">
-        <v>1.043205222359721</v>
+        <v>1.035549636529782</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>-0.003592677800000001</v>
+        <v>0.8036410960048004</v>
       </c>
       <c r="D14">
-        <v>0.006681075699999994</v>
+        <v>0.8632109905093264</v>
       </c>
       <c r="E14">
-        <v>30.27709800000001</v>
+        <v>3.390052849534958</v>
       </c>
       <c r="F14">
-        <v>0.005051382499999996</v>
+        <v>0.8822485133660853</v>
       </c>
       <c r="G14">
-        <v>10.09155199999999</v>
+        <v>1.736919171544056</v>
       </c>
       <c r="H14">
-        <v>40.37854000000003</v>
+        <v>4.088990111118765</v>
       </c>
       <c r="I14">
-        <v>40.37854000000003</v>
+        <v>4.088990111118765</v>
       </c>
       <c r="J14">
-        <v>-0.003592677800000001</v>
+        <v>0.8036410960048004</v>
       </c>
       <c r="K14">
-        <v>-0.003592677800000001</v>
+        <v>0.8036410960048004</v>
       </c>
       <c r="L14">
-        <v>10.09155199999999</v>
+        <v>1.736919171544056</v>
       </c>
       <c r="M14">
-        <v>25.23504600000001</v>
+        <v>2.91295464133141</v>
       </c>
       <c r="N14">
-        <v>25.23504600000001</v>
+        <v>2.91295464133141</v>
       </c>
       <c r="O14">
-        <v>16.82559102523334</v>
+        <v>2.229706757724049</v>
       </c>
       <c r="P14">
-        <v>16.82216644073334</v>
+        <v>2.20985012622254</v>
       </c>
       <c r="Q14">
-        <v>16.82216644073334</v>
+        <v>2.209850126222541</v>
       </c>
       <c r="R14">
-        <v>12.6157266611</v>
+        <v>1.858297868668106</v>
       </c>
       <c r="S14">
-        <v>12.6157266611</v>
+        <v>1.858297868668106</v>
       </c>
       <c r="T14">
-        <v>13.45922163006667</v>
+        <v>1.960843788679665</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>121.14151</v>
+        <v>1.118558773732313</v>
       </c>
       <c r="D15">
-        <v>-0.0017802751</v>
+        <v>0.952247942292905</v>
       </c>
       <c r="E15">
-        <v>0.010282672</v>
+        <v>1.098815420715842</v>
       </c>
       <c r="F15">
-        <v>-0.0067091534</v>
+        <v>1.021816348659361</v>
       </c>
       <c r="G15">
-        <v>-0.012240956</v>
+        <v>0.9497741311741823</v>
       </c>
       <c r="H15">
-        <v>0.0007090084400000001</v>
+        <v>1.118018717583724</v>
       </c>
       <c r="I15">
-        <v>0.0007090084400000001</v>
+        <v>1.118018717583724</v>
       </c>
       <c r="J15">
-        <v>121.14151</v>
+        <v>1.118558773732313</v>
       </c>
       <c r="K15">
-        <v>121.14151</v>
+        <v>1.118558773732313</v>
       </c>
       <c r="L15">
-        <v>-0.012240956</v>
+        <v>0.9497741311741823</v>
       </c>
       <c r="M15">
-        <v>-0.00576597378</v>
+        <v>1.033896424378953</v>
       </c>
       <c r="N15">
-        <v>-0.00576597378</v>
+        <v>1.033896424378953</v>
       </c>
       <c r="O15">
-        <v>-0.004437407553333334</v>
+        <v>1.006680263683604</v>
       </c>
       <c r="P15">
-        <v>40.37665935081333</v>
+        <v>1.06211720749674</v>
       </c>
       <c r="Q15">
-        <v>40.37665935081333</v>
+        <v>1.06211720749674</v>
       </c>
       <c r="R15">
-        <v>60.56787201311</v>
+        <v>1.076227599055633</v>
       </c>
       <c r="S15">
-        <v>60.56787201311</v>
+        <v>1.076227599055633</v>
       </c>
       <c r="T15">
-        <v>20.18862854932333</v>
+        <v>1.043205222359721</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>20.194365</v>
+        <v>-0.003592677800000001</v>
       </c>
       <c r="D16">
-        <v>-0.0019288707</v>
+        <v>0.006681075699999994</v>
       </c>
       <c r="E16">
-        <v>30.303508</v>
+        <v>30.27709800000001</v>
       </c>
       <c r="F16">
-        <v>-0.003354252199999999</v>
+        <v>0.005051382499999996</v>
       </c>
       <c r="G16">
-        <v>10.089288</v>
+        <v>10.09155199999999</v>
       </c>
       <c r="H16">
-        <v>0.0041544129</v>
+        <v>40.37854000000003</v>
       </c>
       <c r="I16">
-        <v>0.0041544129</v>
+        <v>40.37854000000003</v>
       </c>
       <c r="J16">
-        <v>20.194365</v>
+        <v>-0.003592677800000001</v>
       </c>
       <c r="K16">
-        <v>20.194365</v>
+        <v>-0.003592677800000001</v>
       </c>
       <c r="L16">
-        <v>10.089288</v>
+        <v>10.09155199999999</v>
       </c>
       <c r="M16">
-        <v>5.04672120645</v>
+        <v>25.23504600000001</v>
       </c>
       <c r="N16">
-        <v>5.04672120645</v>
+        <v>25.23504600000001</v>
       </c>
       <c r="O16">
-        <v>3.3638378474</v>
+        <v>16.82559102523334</v>
       </c>
       <c r="P16">
-        <v>10.0959358043</v>
+        <v>16.82216644073334</v>
       </c>
       <c r="Q16">
-        <v>10.0959358043</v>
+        <v>16.82216644073334</v>
       </c>
       <c r="R16">
-        <v>12.620543103225</v>
+        <v>12.6157266611</v>
       </c>
       <c r="S16">
-        <v>12.620543103225</v>
+        <v>12.6157266611</v>
       </c>
       <c r="T16">
-        <v>10.09767204833333</v>
+        <v>13.45922163006667</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.2851635</v>
+        <v>121.14151</v>
       </c>
       <c r="D17">
-        <v>0.0018918111</v>
+        <v>-0.0017802751</v>
       </c>
       <c r="E17">
-        <v>1.4083754</v>
+        <v>0.010282672</v>
       </c>
       <c r="F17">
-        <v>-0.0068264178</v>
+        <v>-0.0067091534</v>
       </c>
       <c r="G17">
-        <v>4.9112037</v>
+        <v>-0.012240956</v>
       </c>
       <c r="H17">
-        <v>0.94279376</v>
+        <v>0.0007090084400000001</v>
       </c>
       <c r="I17">
-        <v>0.94279376</v>
+        <v>0.0007090084400000001</v>
       </c>
       <c r="J17">
-        <v>1.2851635</v>
+        <v>121.14151</v>
       </c>
       <c r="K17">
-        <v>1.2851635</v>
+        <v>121.14151</v>
       </c>
       <c r="L17">
-        <v>4.9112037</v>
+        <v>-0.012240956</v>
       </c>
       <c r="M17">
-        <v>2.92699873</v>
+        <v>-0.00576597378</v>
       </c>
       <c r="N17">
-        <v>2.92699873</v>
+        <v>-0.00576597378</v>
       </c>
       <c r="O17">
-        <v>1.951963090366666</v>
+        <v>-0.004437407553333334</v>
       </c>
       <c r="P17">
-        <v>2.37972032</v>
+        <v>40.37665935081333</v>
       </c>
       <c r="Q17">
-        <v>2.37972032</v>
+        <v>40.37665935081333</v>
       </c>
       <c r="R17">
-        <v>2.106081115</v>
+        <v>60.56787201311</v>
       </c>
       <c r="S17">
-        <v>2.106081115</v>
+        <v>60.56787201311</v>
       </c>
       <c r="T17">
-        <v>1.423766958883333</v>
+        <v>20.18862854932333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>7.263329451383068</v>
+        <v>20.194365</v>
       </c>
       <c r="D18">
-        <v>1.718655274946576</v>
+        <v>-0.0019288707</v>
       </c>
       <c r="E18">
-        <v>0.9382174675479452</v>
+        <v>30.303508</v>
       </c>
       <c r="F18">
-        <v>1.555829678690247</v>
+        <v>-0.003354252199999999</v>
       </c>
       <c r="G18">
-        <v>1.522394856945206</v>
+        <v>10.089288</v>
       </c>
       <c r="H18">
-        <v>2.492675206161095</v>
+        <v>0.0041544129</v>
       </c>
       <c r="I18">
-        <v>2.492675206161095</v>
+        <v>0.0041544129</v>
       </c>
       <c r="J18">
-        <v>7.263329451383068</v>
+        <v>20.194365</v>
       </c>
       <c r="K18">
-        <v>7.263329451383068</v>
+        <v>20.194365</v>
       </c>
       <c r="L18">
-        <v>1.522394856945206</v>
+        <v>10.089288</v>
       </c>
       <c r="M18">
-        <v>2.00753503155315</v>
+        <v>5.04672120645</v>
       </c>
       <c r="N18">
-        <v>2.00753503155315</v>
+        <v>5.04672120645</v>
       </c>
       <c r="O18">
-        <v>1.911241779350959</v>
+        <v>3.3638378474</v>
       </c>
       <c r="P18">
-        <v>3.75946650482979</v>
+        <v>10.0959358043</v>
       </c>
       <c r="Q18">
-        <v>3.75946650482979</v>
+        <v>10.0959358043</v>
       </c>
       <c r="R18">
-        <v>4.635432241468109</v>
+        <v>12.620543103225</v>
       </c>
       <c r="S18">
-        <v>4.635432241468109</v>
+        <v>12.620543103225</v>
       </c>
       <c r="T18">
-        <v>2.581850322612356</v>
+        <v>10.09767204833333</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>4.052230811670526</v>
+        <v>1.2851635</v>
       </c>
       <c r="D19">
-        <v>0.001653716411578947</v>
+        <v>0.0018918111</v>
       </c>
       <c r="E19">
-        <v>12.13835804947369</v>
+        <v>1.4083754</v>
       </c>
       <c r="F19">
-        <v>-0.005626627673684209</v>
+        <v>-0.0068264178</v>
       </c>
       <c r="G19">
-        <v>4.045530941157893</v>
+        <v>4.9112037</v>
       </c>
       <c r="H19">
-        <v>8.103328102157372</v>
+        <v>0.94279376</v>
       </c>
       <c r="I19">
-        <v>8.103328102157372</v>
+        <v>0.94279376</v>
       </c>
       <c r="J19">
-        <v>4.052230811670526</v>
+        <v>1.2851635</v>
       </c>
       <c r="K19">
-        <v>4.052230811670526</v>
+        <v>1.2851635</v>
       </c>
       <c r="L19">
-        <v>4.045530941157893</v>
+        <v>4.9112037</v>
       </c>
       <c r="M19">
-        <v>6.074429521657633</v>
+        <v>2.92699873</v>
       </c>
       <c r="N19">
-        <v>6.074429521657633</v>
+        <v>2.92699873</v>
       </c>
       <c r="O19">
-        <v>4.050170919908948</v>
+        <v>1.951963090366666</v>
       </c>
       <c r="P19">
-        <v>5.400363284995264</v>
+        <v>2.37972032</v>
       </c>
       <c r="Q19">
-        <v>5.400363284995264</v>
+        <v>2.37972032</v>
       </c>
       <c r="R19">
-        <v>5.06333016666408</v>
+        <v>2.106081115</v>
       </c>
       <c r="S19">
-        <v>5.06333016666408</v>
+        <v>2.106081115</v>
       </c>
       <c r="T19">
-        <v>4.722579165532895</v>
+        <v>1.423766958883333</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>7.979312787437896</v>
+        <v>7.263329451383068</v>
       </c>
       <c r="D20">
-        <v>0.2759162879236842</v>
+        <v>1.718655274946576</v>
       </c>
       <c r="E20">
-        <v>3.484395027764211</v>
+        <v>0.9382174675479452</v>
       </c>
       <c r="F20">
-        <v>1.566428756198421</v>
+        <v>1.555829678690247</v>
       </c>
       <c r="G20">
-        <v>1.896432722231052</v>
+        <v>1.522394856945206</v>
       </c>
       <c r="H20">
-        <v>2.259136785006686</v>
+        <v>2.492675206161095</v>
       </c>
       <c r="I20">
-        <v>2.259136785006686</v>
+        <v>2.492675206161095</v>
       </c>
       <c r="J20">
-        <v>7.979312787437896</v>
+        <v>7.263329451383068</v>
       </c>
       <c r="K20">
-        <v>7.979312787437896</v>
+        <v>7.263329451383068</v>
       </c>
       <c r="L20">
-        <v>1.896432722231052</v>
+        <v>1.522394856945206</v>
       </c>
       <c r="M20">
-        <v>2.077784753618869</v>
+        <v>2.00753503155315</v>
       </c>
       <c r="N20">
-        <v>2.077784753618869</v>
+        <v>2.00753503155315</v>
       </c>
       <c r="O20">
-        <v>1.477161931720474</v>
+        <v>1.911241779350959</v>
       </c>
       <c r="P20">
-        <v>4.044960764891878</v>
+        <v>3.75946650482979</v>
       </c>
       <c r="Q20">
-        <v>4.044960764891878</v>
+        <v>3.75946650482979</v>
       </c>
       <c r="R20">
-        <v>5.028548770528382</v>
+        <v>4.635432241468109</v>
       </c>
       <c r="S20">
-        <v>5.028548770528382</v>
+        <v>4.635432241468109</v>
       </c>
       <c r="T20">
-        <v>2.910270394426992</v>
+        <v>2.581850322612356</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.4331838084551377</v>
+        <v>4.052230811670526</v>
       </c>
       <c r="D21">
-        <v>1.688266149648427</v>
+        <v>0.001653716411578947</v>
       </c>
       <c r="E21">
-        <v>0.6126721767637138</v>
+        <v>12.13835804947369</v>
       </c>
       <c r="F21">
-        <v>1.228362198520639</v>
+        <v>-0.005626627673684209</v>
       </c>
       <c r="G21">
-        <v>0.551084634679422</v>
+        <v>4.045530941157893</v>
       </c>
       <c r="H21">
-        <v>1.68654151015918</v>
+        <v>8.103328102157372</v>
       </c>
       <c r="I21">
-        <v>1.68654151015918</v>
+        <v>8.103328102157372</v>
       </c>
       <c r="J21">
-        <v>0.4331838084551377</v>
+        <v>4.052230811670526</v>
       </c>
       <c r="K21">
-        <v>0.4331838084551377</v>
+        <v>4.052230811670526</v>
       </c>
       <c r="L21">
-        <v>0.551084634679422</v>
+        <v>4.045530941157893</v>
       </c>
       <c r="M21">
-        <v>1.118813072419301</v>
+        <v>6.074429521657633</v>
       </c>
       <c r="N21">
-        <v>1.118813072419301</v>
+        <v>6.074429521657633</v>
       </c>
       <c r="O21">
-        <v>1.30863076482901</v>
+        <v>4.050170919908948</v>
       </c>
       <c r="P21">
-        <v>0.8902699844312464</v>
+        <v>5.400363284995264</v>
       </c>
       <c r="Q21">
-        <v>0.8902699844312464</v>
+        <v>5.400363284995264</v>
       </c>
       <c r="R21">
-        <v>0.7759984404372192</v>
+        <v>5.06333016666408</v>
       </c>
       <c r="S21">
-        <v>0.7759984404372192</v>
+        <v>5.06333016666408</v>
       </c>
       <c r="T21">
-        <v>1.033351746371087</v>
+        <v>4.722579165532895</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.3878749146360924</v>
+        <v>7.979312787437896</v>
       </c>
       <c r="D22">
-        <v>1.471135685741275</v>
+        <v>0.2759162879236842</v>
       </c>
       <c r="E22">
-        <v>0.3973658516338666</v>
+        <v>3.484395027764211</v>
       </c>
       <c r="F22">
-        <v>0.970124542052011</v>
+        <v>1.566428756198421</v>
       </c>
       <c r="G22">
-        <v>0.7411530584963391</v>
+        <v>1.896432722231052</v>
       </c>
       <c r="H22">
-        <v>0.05381285810825413</v>
+        <v>2.259136785006686</v>
       </c>
       <c r="I22">
-        <v>0.05381285810825413</v>
+        <v>2.259136785006686</v>
       </c>
       <c r="J22">
-        <v>0.3878749146360924</v>
+        <v>7.979312787437896</v>
       </c>
       <c r="K22">
-        <v>0.3878749146360924</v>
+        <v>7.979312787437896</v>
       </c>
       <c r="L22">
-        <v>0.7411530584963391</v>
+        <v>1.896432722231052</v>
       </c>
       <c r="M22">
-        <v>0.3974829583022966</v>
+        <v>2.077784753618869</v>
       </c>
       <c r="N22">
-        <v>0.3974829583022966</v>
+        <v>2.077784753618869</v>
       </c>
       <c r="O22">
-        <v>0.7553672007819562</v>
+        <v>1.477161931720474</v>
       </c>
       <c r="P22">
-        <v>0.3942802770802285</v>
+        <v>4.044960764891878</v>
       </c>
       <c r="Q22">
-        <v>0.3942802770802285</v>
+        <v>4.044960764891878</v>
       </c>
       <c r="R22">
-        <v>0.3926789364691945</v>
+        <v>5.028548770528382</v>
       </c>
       <c r="S22">
-        <v>0.3926789364691945</v>
+        <v>5.028548770528382</v>
       </c>
       <c r="T22">
-        <v>0.6702444851113064</v>
+        <v>2.910270394426992</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.705554643115539</v>
+        <v>0.4331838084551377</v>
       </c>
       <c r="D23">
-        <v>1.60510479929576</v>
+        <v>1.688266149648427</v>
       </c>
       <c r="E23">
-        <v>0.0009603180863463678</v>
+        <v>0.6126721767637138</v>
       </c>
       <c r="F23">
-        <v>1.44589577300558</v>
+        <v>1.228362198520639</v>
       </c>
       <c r="G23">
-        <v>1.042010413470588</v>
+        <v>0.551084634679422</v>
       </c>
       <c r="H23">
-        <v>0.002485235279404896</v>
+        <v>1.68654151015918</v>
       </c>
       <c r="I23">
-        <v>0.002485235279404896</v>
+        <v>1.68654151015918</v>
       </c>
       <c r="J23">
-        <v>1.705554643115539</v>
+        <v>0.4331838084551377</v>
       </c>
       <c r="K23">
-        <v>1.705554643115539</v>
+        <v>0.4331838084551377</v>
       </c>
       <c r="L23">
-        <v>1.042010413470588</v>
+        <v>0.551084634679422</v>
       </c>
       <c r="M23">
-        <v>0.5222478243749965</v>
+        <v>1.118813072419301</v>
       </c>
       <c r="N23">
-        <v>0.5222478243749965</v>
+        <v>1.118813072419301</v>
       </c>
       <c r="O23">
-        <v>0.8832001493485843</v>
+        <v>1.30863076482901</v>
       </c>
       <c r="P23">
-        <v>0.9166834306218439</v>
+        <v>0.8902699844312464</v>
       </c>
       <c r="Q23">
-        <v>0.9166834306218439</v>
+        <v>0.8902699844312464</v>
       </c>
       <c r="R23">
-        <v>1.113901233745268</v>
+        <v>0.7759984404372192</v>
       </c>
       <c r="S23">
-        <v>1.113901233745268</v>
+        <v>0.7759984404372192</v>
       </c>
       <c r="T23">
-        <v>0.9670018637088696</v>
+        <v>1.033351746371087</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.069219111067938</v>
+        <v>0.3878749146360924</v>
       </c>
       <c r="D24">
-        <v>0.7245298929213373</v>
+        <v>1.471135685741275</v>
       </c>
       <c r="E24">
-        <v>1.669950404516509</v>
+        <v>0.3973658516338666</v>
       </c>
       <c r="F24">
-        <v>0.9738373934482308</v>
+        <v>0.970124542052011</v>
       </c>
       <c r="G24">
-        <v>1.255596748899099</v>
+        <v>0.7411530584963391</v>
       </c>
       <c r="H24">
-        <v>2.918949149647179</v>
+        <v>0.05381285810825413</v>
       </c>
       <c r="I24">
-        <v>2.918949149647179</v>
+        <v>0.05381285810825413</v>
       </c>
       <c r="J24">
-        <v>1.069219111067938</v>
+        <v>0.3878749146360924</v>
       </c>
       <c r="K24">
-        <v>1.069219111067938</v>
+        <v>0.3878749146360924</v>
       </c>
       <c r="L24">
-        <v>1.255596748899099</v>
+        <v>0.7411530584963391</v>
       </c>
       <c r="M24">
-        <v>2.087272949273139</v>
+        <v>0.3974829583022966</v>
       </c>
       <c r="N24">
-        <v>2.087272949273139</v>
+        <v>0.3974829583022966</v>
       </c>
       <c r="O24">
-        <v>1.633025263822539</v>
+        <v>0.7553672007819562</v>
       </c>
       <c r="P24">
-        <v>1.747921669871406</v>
+        <v>0.3942802770802285</v>
       </c>
       <c r="Q24">
-        <v>1.747921669871406</v>
+        <v>0.3942802770802285</v>
       </c>
       <c r="R24">
-        <v>1.578246030170539</v>
+        <v>0.3926789364691945</v>
       </c>
       <c r="S24">
-        <v>1.578246030170539</v>
+        <v>0.3926789364691945</v>
       </c>
       <c r="T24">
-        <v>1.435347116750049</v>
+        <v>0.6702444851113064</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.794983312429255</v>
+        <v>1.705554643115539</v>
       </c>
       <c r="D25">
-        <v>0.5264296063171332</v>
+        <v>1.60510479929576</v>
       </c>
       <c r="E25">
-        <v>0.07054503366969642</v>
+        <v>0.0009603180863463678</v>
       </c>
       <c r="F25">
-        <v>1.401172564976549</v>
+        <v>1.44589577300558</v>
       </c>
       <c r="G25">
-        <v>0.5390105871807543</v>
+        <v>1.042010413470588</v>
       </c>
       <c r="H25">
-        <v>0.001806637258293289</v>
+        <v>0.002485235279404896</v>
       </c>
       <c r="I25">
-        <v>0.001806637258293289</v>
+        <v>0.002485235279404896</v>
       </c>
       <c r="J25">
-        <v>1.794983312429255</v>
+        <v>1.705554643115539</v>
       </c>
       <c r="K25">
-        <v>1.794983312429255</v>
+        <v>1.705554643115539</v>
       </c>
       <c r="L25">
-        <v>0.5390105871807543</v>
+        <v>1.042010413470588</v>
       </c>
       <c r="M25">
-        <v>0.2704086122195238</v>
+        <v>0.5222478243749965</v>
       </c>
       <c r="N25">
-        <v>0.2704086122195238</v>
+        <v>0.5222478243749965</v>
       </c>
       <c r="O25">
-        <v>0.3557489435853936</v>
+        <v>0.8832001493485843</v>
       </c>
       <c r="P25">
-        <v>0.7786001789561009</v>
+        <v>0.9166834306218439</v>
       </c>
       <c r="Q25">
-        <v>0.7786001789561007</v>
+        <v>0.9166834306218439</v>
       </c>
       <c r="R25">
-        <v>1.032695962324389</v>
+        <v>1.113901233745268</v>
       </c>
       <c r="S25">
-        <v>1.032695962324389</v>
+        <v>1.113901233745268</v>
       </c>
       <c r="T25">
-        <v>0.7223246236386135</v>
+        <v>0.9670018637088696</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.2863276994801713</v>
+        <v>1.069219111067938</v>
       </c>
       <c r="D26">
-        <v>1.334802064628523</v>
+        <v>0.7245298929213373</v>
       </c>
       <c r="E26">
-        <v>1.120897010725991</v>
+        <v>1.669950404516509</v>
       </c>
       <c r="F26">
-        <v>1.047774481154559</v>
+        <v>0.9738373934482308</v>
       </c>
       <c r="G26">
-        <v>1.866557827536633</v>
+        <v>1.255596748899099</v>
       </c>
       <c r="H26">
-        <v>0.6115437164993525</v>
+        <v>2.918949149647179</v>
       </c>
       <c r="I26">
-        <v>0.6115437164993525</v>
+        <v>2.918949149647179</v>
       </c>
       <c r="J26">
-        <v>0.2863276994801713</v>
+        <v>1.069219111067938</v>
       </c>
       <c r="K26">
-        <v>0.2863276994801713</v>
+        <v>1.069219111067938</v>
       </c>
       <c r="L26">
-        <v>1.866557827536633</v>
+        <v>1.255596748899099</v>
       </c>
       <c r="M26">
-        <v>1.239050772017992</v>
+        <v>2.087272949273139</v>
       </c>
       <c r="N26">
-        <v>1.239050772017992</v>
+        <v>2.087272949273139</v>
       </c>
       <c r="O26">
-        <v>1.270967869554836</v>
+        <v>1.633025263822539</v>
       </c>
       <c r="P26">
-        <v>0.9214764145053854</v>
+        <v>1.747921669871406</v>
       </c>
       <c r="Q26">
-        <v>0.9214764145053854</v>
+        <v>1.747921669871406</v>
       </c>
       <c r="R26">
-        <v>0.762689235749082</v>
+        <v>1.578246030170539</v>
       </c>
       <c r="S26">
-        <v>0.762689235749082</v>
+        <v>1.578246030170539</v>
       </c>
       <c r="T26">
-        <v>1.044650466670871</v>
+        <v>1.435347116750049</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>2.566107441077575</v>
+        <v>1.794983312429255</v>
       </c>
       <c r="D27">
-        <v>2.637982112588745</v>
+        <v>0.5264296063171332</v>
       </c>
       <c r="E27">
-        <v>6.745019429020989</v>
+        <v>0.07054503366969642</v>
       </c>
       <c r="F27">
-        <v>1.232173886747925</v>
+        <v>1.401172564976549</v>
       </c>
       <c r="G27">
-        <v>1.703246889088722</v>
+        <v>0.5390105871807543</v>
       </c>
       <c r="H27">
-        <v>4.031153167192008</v>
+        <v>0.001806637258293289</v>
       </c>
       <c r="I27">
-        <v>4.031153167192008</v>
+        <v>0.001806637258293289</v>
       </c>
       <c r="J27">
-        <v>2.566107441077575</v>
+        <v>1.794983312429255</v>
       </c>
       <c r="K27">
-        <v>2.566107441077575</v>
+        <v>1.794983312429255</v>
       </c>
       <c r="L27">
-        <v>1.703246889088722</v>
+        <v>0.5390105871807543</v>
       </c>
       <c r="M27">
-        <v>2.867200028140365</v>
+        <v>0.2704086122195238</v>
       </c>
       <c r="N27">
-        <v>2.867200028140365</v>
+        <v>0.2704086122195238</v>
       </c>
       <c r="O27">
-        <v>2.790794056289825</v>
+        <v>0.3557489435853936</v>
       </c>
       <c r="P27">
-        <v>2.766835832452768</v>
+        <v>0.7786001789561009</v>
       </c>
       <c r="Q27">
-        <v>2.766835832452768</v>
+        <v>0.7786001789561007</v>
       </c>
       <c r="R27">
-        <v>2.71665373460897</v>
+        <v>1.032695962324389</v>
       </c>
       <c r="S27">
-        <v>2.71665373460897</v>
+        <v>1.032695962324389</v>
       </c>
       <c r="T27">
-        <v>3.152613820952661</v>
+        <v>0.7223246236386135</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>3.311595942327824</v>
+        <v>0.2863276994801713</v>
       </c>
       <c r="D28">
-        <v>0.9593792415122903</v>
+        <v>1.334802064628523</v>
       </c>
       <c r="E28">
-        <v>2.745522149341091</v>
+        <v>1.120897010725991</v>
       </c>
       <c r="F28">
-        <v>1.465823094931901</v>
+        <v>1.047774481154559</v>
       </c>
       <c r="G28">
-        <v>1.157603070290836</v>
+        <v>1.866557827536633</v>
       </c>
       <c r="H28">
-        <v>4.174194138986013</v>
+        <v>0.6115437164993525</v>
       </c>
       <c r="I28">
-        <v>4.174194138986013</v>
+        <v>0.6115437164993525</v>
       </c>
       <c r="J28">
-        <v>3.311595942327824</v>
+        <v>0.2863276994801713</v>
       </c>
       <c r="K28">
-        <v>3.311595942327824</v>
+        <v>0.2863276994801713</v>
       </c>
       <c r="L28">
-        <v>1.157603070290836</v>
+        <v>1.866557827536633</v>
       </c>
       <c r="M28">
-        <v>2.665898604638425</v>
+        <v>1.239050772017992</v>
       </c>
       <c r="N28">
-        <v>2.665898604638425</v>
+        <v>1.239050772017992</v>
       </c>
       <c r="O28">
-        <v>2.097058816929713</v>
+        <v>1.270967869554836</v>
       </c>
       <c r="P28">
-        <v>2.881131050534891</v>
+        <v>0.9214764145053854</v>
       </c>
       <c r="Q28">
-        <v>2.881131050534891</v>
+        <v>0.9214764145053854</v>
       </c>
       <c r="R28">
-        <v>2.988747273483124</v>
+        <v>0.762689235749082</v>
       </c>
       <c r="S28">
-        <v>2.988747273483124</v>
+        <v>0.762689235749082</v>
       </c>
       <c r="T28">
-        <v>2.302352939564992</v>
+        <v>1.044650466670871</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>2.566107441077575</v>
+      </c>
+      <c r="D29">
+        <v>2.637982112588745</v>
+      </c>
+      <c r="E29">
+        <v>6.745019429020989</v>
+      </c>
+      <c r="F29">
+        <v>1.232173886747925</v>
+      </c>
+      <c r="G29">
+        <v>1.703246889088722</v>
+      </c>
+      <c r="H29">
+        <v>4.031153167192008</v>
+      </c>
+      <c r="I29">
+        <v>4.031153167192008</v>
+      </c>
+      <c r="J29">
+        <v>2.566107441077575</v>
+      </c>
+      <c r="K29">
+        <v>2.566107441077575</v>
+      </c>
+      <c r="L29">
+        <v>1.703246889088722</v>
+      </c>
+      <c r="M29">
+        <v>2.867200028140365</v>
+      </c>
+      <c r="N29">
+        <v>2.867200028140365</v>
+      </c>
+      <c r="O29">
+        <v>2.790794056289825</v>
+      </c>
+      <c r="P29">
+        <v>2.766835832452768</v>
+      </c>
+      <c r="Q29">
+        <v>2.766835832452768</v>
+      </c>
+      <c r="R29">
+        <v>2.71665373460897</v>
+      </c>
+      <c r="S29">
+        <v>2.71665373460897</v>
+      </c>
+      <c r="T29">
+        <v>3.152613820952661</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>3.311595942327824</v>
+      </c>
+      <c r="D30">
+        <v>0.9593792415122903</v>
+      </c>
+      <c r="E30">
+        <v>2.745522149341091</v>
+      </c>
+      <c r="F30">
+        <v>1.465823094931901</v>
+      </c>
+      <c r="G30">
+        <v>1.157603070290836</v>
+      </c>
+      <c r="H30">
+        <v>4.174194138986013</v>
+      </c>
+      <c r="I30">
+        <v>4.174194138986013</v>
+      </c>
+      <c r="J30">
+        <v>3.311595942327824</v>
+      </c>
+      <c r="K30">
+        <v>3.311595942327824</v>
+      </c>
+      <c r="L30">
+        <v>1.157603070290836</v>
+      </c>
+      <c r="M30">
+        <v>2.665898604638425</v>
+      </c>
+      <c r="N30">
+        <v>2.665898604638425</v>
+      </c>
+      <c r="O30">
+        <v>2.097058816929713</v>
+      </c>
+      <c r="P30">
+        <v>2.881131050534891</v>
+      </c>
+      <c r="Q30">
+        <v>2.881131050534891</v>
+      </c>
+      <c r="R30">
+        <v>2.988747273483124</v>
+      </c>
+      <c r="S30">
+        <v>2.988747273483124</v>
+      </c>
+      <c r="T30">
+        <v>2.302352939564992</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>6.911418378338329</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.273394447950587</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>6.040787931321557</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.3290680290204437</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.117608088513095</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>8.063979327355129</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>8.063979327355129</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>6.911418378338329</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>6.911418378338329</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.117608088513095</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>4.590793707934112</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>4.590793707934112</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>3.48499395460627</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>5.364335264735518</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>5.364335264735518</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>5.751106043136221</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>5.751106043136221</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>3.956042700416524</v>
       </c>
     </row>
